--- a/Code/Results/Cases/Case_5_14/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_14/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,25 +409,31 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.619146577100423</v>
+        <v>3.444730640408636</v>
       </c>
       <c r="C2">
-        <v>0.6442768123607721</v>
+        <v>0.4827799223516251</v>
       </c>
       <c r="D2">
-        <v>0.1983066225204766</v>
+        <v>0.04346714157036757</v>
       </c>
       <c r="E2">
-        <v>0.06069195519683745</v>
+        <v>0.03554641756431032</v>
       </c>
       <c r="F2">
-        <v>6.538381123381157</v>
+        <v>2.148702092251867</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -439,36 +445,42 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1285594376477306</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.3253528820898595</v>
       </c>
       <c r="M2">
-        <v>0.7376862272309097</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>1.737508658975955</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.241115636966867</v>
+        <v>2.979850677767047</v>
       </c>
       <c r="C3">
-        <v>0.5491944298715055</v>
+        <v>0.4251772761458312</v>
       </c>
       <c r="D3">
-        <v>0.1745461680396687</v>
+        <v>0.04482977669624333</v>
       </c>
       <c r="E3">
-        <v>0.053536817916914</v>
+        <v>0.03499698929167394</v>
       </c>
       <c r="F3">
-        <v>5.736546386549378</v>
+        <v>1.936862154088445</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -480,36 +492,42 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1134234849100935</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2847295342129144</v>
       </c>
       <c r="M3">
-        <v>0.6320032433201135</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>1.575853089234243</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.015409749679009</v>
+        <v>2.698770369059446</v>
       </c>
       <c r="C4">
-        <v>0.4924905106891231</v>
+        <v>0.3900699700073744</v>
       </c>
       <c r="D4">
-        <v>0.1603547840528279</v>
+        <v>0.04575512136987214</v>
       </c>
       <c r="E4">
-        <v>0.04928463008801742</v>
+        <v>0.03471185845856795</v>
       </c>
       <c r="F4">
-        <v>5.257735362289168</v>
+        <v>1.811713720481308</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -521,36 +539,42 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1043987266407314</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2603233370512896</v>
       </c>
       <c r="M4">
-        <v>0.5689731921156493</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>1.480675252748611</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.924799187898401</v>
+        <v>2.585168798510722</v>
       </c>
       <c r="C5">
-        <v>0.4697351620988002</v>
+        <v>0.3758120293693992</v>
       </c>
       <c r="D5">
-        <v>0.1546548093860878</v>
+        <v>0.04615289700846148</v>
       </c>
       <c r="E5">
-        <v>0.04758261171954459</v>
+        <v>0.03460802618764625</v>
       </c>
       <c r="F5">
-        <v>5.065502695484895</v>
+        <v>1.761824442911688</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -562,36 +586,42 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1007787090430732</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2504964349303833</v>
       </c>
       <c r="M5">
-        <v>0.5436859004382768</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>1.4428111153142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.90982929726141</v>
+        <v>2.566357908056887</v>
       </c>
       <c r="C6">
-        <v>0.4659760337250987</v>
+        <v>0.3734469749712162</v>
       </c>
       <c r="D6">
-        <v>0.1537128971137207</v>
+        <v>0.04622015292518711</v>
       </c>
       <c r="E6">
-        <v>0.04730172479675687</v>
+        <v>0.03459151012837225</v>
       </c>
       <c r="F6">
-        <v>5.033743067316408</v>
+        <v>1.753603855009914</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -603,36 +633,42 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1001808200565399</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2488714165779982</v>
       </c>
       <c r="M6">
-        <v>0.5395091192341539</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1.436576589030096</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.014182513568983</v>
+        <v>2.697234683396914</v>
       </c>
       <c r="C7">
-        <v>0.4921822849829312</v>
+        <v>0.3898775071287446</v>
       </c>
       <c r="D7">
-        <v>0.1602775964972096</v>
+        <v>0.04576040414890059</v>
       </c>
       <c r="E7">
-        <v>0.04926155725537384</v>
+        <v>0.03471040906458178</v>
       </c>
       <c r="F7">
-        <v>5.25513179239357</v>
+        <v>1.81103656423673</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -644,36 +680,42 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1043496847372261</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2601903472183267</v>
       </c>
       <c r="M7">
-        <v>0.5686306336135445</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>1.480161003429842</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.487314905091978</v>
+        <v>3.283437729210334</v>
       </c>
       <c r="C8">
-        <v>0.6110994841121169</v>
+        <v>0.4628535707474839</v>
       </c>
       <c r="D8">
-        <v>0.1900207005119086</v>
+        <v>0.0439175520886117</v>
       </c>
       <c r="E8">
-        <v>0.05819257441038417</v>
+        <v>0.03534565243756305</v>
       </c>
       <c r="F8">
-        <v>6.258774633905972</v>
+        <v>2.074557465080161</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -685,36 +727,42 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1232784159071088</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.3112243815558031</v>
       </c>
       <c r="M8">
-        <v>0.7008160547899465</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>1.680857517793513</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.478851072377438</v>
+        <v>4.475397635681986</v>
       </c>
       <c r="C9">
-        <v>0.8613004855754411</v>
+        <v>0.6088992838981824</v>
       </c>
       <c r="D9">
-        <v>0.2523850925084759</v>
+        <v>0.04108935194421903</v>
       </c>
       <c r="E9">
-        <v>0.07707167222887179</v>
+        <v>0.03704413008221863</v>
       </c>
       <c r="F9">
-        <v>8.361029834833801</v>
+        <v>2.636807074548756</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -726,36 +774,42 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1630506421090239</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.4163741386857254</v>
       </c>
       <c r="M9">
-        <v>0.9784582855818016</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>2.11202618339999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.267776472601383</v>
+        <v>5.389408111252123</v>
       </c>
       <c r="C10">
-        <v>1.061731399010455</v>
+        <v>0.7193798252376098</v>
       </c>
       <c r="D10">
-        <v>0.3021370254832618</v>
+        <v>0.03962196192259881</v>
       </c>
       <c r="E10">
-        <v>0.09218306636822149</v>
+        <v>0.03862803915057178</v>
       </c>
       <c r="F10">
-        <v>10.03197577778693</v>
+        <v>3.087749059547377</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -767,36 +821,42 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1947538611389348</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.4980041146374248</v>
       </c>
       <c r="M10">
-        <v>1.199822158202061</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>2.459978726665383</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.645973285259515</v>
+        <v>5.816778543790576</v>
       </c>
       <c r="C11">
-        <v>1.158320911844129</v>
+        <v>0.770698338528149</v>
       </c>
       <c r="D11">
-        <v>0.3260421323561928</v>
+        <v>0.03912241934617455</v>
       </c>
       <c r="E11">
-        <v>0.09944253584032126</v>
+        <v>0.03943708968588844</v>
       </c>
       <c r="F11">
-        <v>10.83222906691594</v>
+        <v>3.303759223856048</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -808,36 +868,42 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.209960413521955</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.5364252496706001</v>
       </c>
       <c r="M11">
-        <v>1.306055161239073</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>2.627196195688725</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.792618854511488</v>
+        <v>5.980594937558749</v>
       </c>
       <c r="C12">
-        <v>1.195868373139263</v>
+        <v>0.7903198940879008</v>
       </c>
       <c r="D12">
-        <v>0.3353215870593544</v>
+        <v>0.03896098342093879</v>
       </c>
       <c r="E12">
-        <v>0.1022590539737216</v>
+        <v>0.0397576899536638</v>
       </c>
       <c r="F12">
-        <v>11.14236908991052</v>
+        <v>3.38737851747203</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -849,36 +915,42 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2158573864403799</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.5511920542288067</v>
       </c>
       <c r="M12">
-        <v>1.347264888205046</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>2.692012187831537</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.760871530397822</v>
+        <v>5.945220553203853</v>
       </c>
       <c r="C13">
-        <v>1.187735110646173</v>
+        <v>0.7860850337255272</v>
       </c>
       <c r="D13">
-        <v>0.3333121820999168</v>
+        <v>0.03899445486383968</v>
       </c>
       <c r="E13">
-        <v>0.1016492423297457</v>
+        <v>0.03968798391028727</v>
       </c>
       <c r="F13">
-        <v>11.07523471455511</v>
+        <v>3.369284120941757</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -890,36 +962,42 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2145807334444996</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.5480015157601201</v>
       </c>
       <c r="M13">
-        <v>1.338342569161313</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>2.677982768081591</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.65796488116348</v>
+        <v>5.830214157272167</v>
       </c>
       <c r="C14">
-        <v>1.161389237610365</v>
+        <v>0.7723086158516708</v>
       </c>
       <c r="D14">
-        <v>0.3268007197342939</v>
+        <v>0.03910855955527737</v>
       </c>
       <c r="E14">
-        <v>0.09967282062067184</v>
+        <v>0.03946317112603026</v>
       </c>
       <c r="F14">
-        <v>10.8575934909702</v>
+        <v>3.310600532461649</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -931,36 +1009,42 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2104426160841477</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.5376355609007817</v>
       </c>
       <c r="M14">
-        <v>1.309424624473181</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>2.632497385019889</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.595400239520927</v>
+        <v>5.760037463741412</v>
       </c>
       <c r="C15">
-        <v>1.145384574539747</v>
+        <v>0.7638958484988336</v>
       </c>
       <c r="D15">
-        <v>0.3228433106569071</v>
+        <v>0.03918217947249758</v>
       </c>
       <c r="E15">
-        <v>0.09847140162119672</v>
+        <v>0.03932736809333903</v>
       </c>
       <c r="F15">
-        <v>10.7252511781582</v>
+        <v>3.274900547880236</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -972,36 +1056,42 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2079268064328943</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.5313154886722629</v>
       </c>
       <c r="M15">
-        <v>1.291845600706452</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>2.604837636603548</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.243501709563247</v>
+        <v>5.361737425253523</v>
       </c>
       <c r="C16">
-        <v>1.055543471963119</v>
+        <v>0.7160503218911742</v>
       </c>
       <c r="D16">
-        <v>0.3006039388098856</v>
+        <v>0.03965828081647516</v>
       </c>
       <c r="E16">
-        <v>0.09171737381344514</v>
+        <v>0.03857707081498951</v>
       </c>
       <c r="F16">
-        <v>9.98059233208491</v>
+        <v>3.073872269406706</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1013,36 +1103,42 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1937779452771373</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.4955217765688928</v>
       </c>
       <c r="M16">
-        <v>1.193005917130527</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>2.449247678084376</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.032991762931601</v>
+        <v>5.120570121735454</v>
       </c>
       <c r="C17">
-        <v>1.001939302629211</v>
+        <v>0.6869941021931538</v>
       </c>
       <c r="D17">
-        <v>0.2873153123432246</v>
+        <v>0.03999574266912376</v>
       </c>
       <c r="E17">
-        <v>0.08768052044957031</v>
+        <v>0.03814046616439981</v>
       </c>
       <c r="F17">
-        <v>9.534908952472222</v>
+        <v>2.953504934109475</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1054,36 +1150,42 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1853157216191299</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.4739148769071164</v>
       </c>
       <c r="M17">
-        <v>1.133908370999535</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>2.356226198785549</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.913683247881295</v>
+        <v>4.982925965226286</v>
       </c>
       <c r="C18">
-        <v>0.9716033108728652</v>
+        <v>0.6703791004338484</v>
       </c>
       <c r="D18">
-        <v>0.2797887180135774</v>
+        <v>0.04020540758403968</v>
       </c>
       <c r="E18">
-        <v>0.08539403248598276</v>
+        <v>0.03789757394144644</v>
       </c>
       <c r="F18">
-        <v>9.282247006686447</v>
+        <v>2.885278992477168</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1095,36 +1197,42 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1805205047941847</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.4616061302221794</v>
       </c>
       <c r="M18">
-        <v>1.10042467988022</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>2.303549241292316</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.873573951271908</v>
+        <v>4.936496722758363</v>
       </c>
       <c r="C19">
-        <v>0.9614120072031085</v>
+        <v>0.6647692618220162</v>
       </c>
       <c r="D19">
-        <v>0.277259185284592</v>
+        <v>0.04027897031122052</v>
       </c>
       <c r="E19">
-        <v>0.08462561800880408</v>
+        <v>0.03781670603010667</v>
       </c>
       <c r="F19">
-        <v>9.197296501814861</v>
+        <v>2.862344416178075</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1136,36 +1244,42 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1789085985350134</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.4574581174698693</v>
       </c>
       <c r="M19">
-        <v>1.089169834970377</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>2.285849767857286</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.055213299039679</v>
+        <v>5.146130026663911</v>
       </c>
       <c r="C20">
-        <v>1.007592993128952</v>
+        <v>0.6900768663759038</v>
       </c>
       <c r="D20">
-        <v>0.2887175443458574</v>
+        <v>0.03995818422769659</v>
       </c>
       <c r="E20">
-        <v>0.08810650643609108</v>
+        <v>0.03818608134343826</v>
       </c>
       <c r="F20">
-        <v>9.581962740951724</v>
+        <v>2.966212360471872</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1177,36 +1291,42 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1862089153802344</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.4762024346511993</v>
       </c>
       <c r="M20">
-        <v>1.140145645174577</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>2.366041524620357</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.688092011753099</v>
+        <v>5.863937835121646</v>
       </c>
       <c r="C21">
-        <v>1.169099544366816</v>
+        <v>0.7763496587791963</v>
       </c>
       <c r="D21">
-        <v>0.3287067304960232</v>
+        <v>0.03907426019232929</v>
       </c>
       <c r="E21">
-        <v>0.1002514016352443</v>
+        <v>0.03952880488608557</v>
       </c>
       <c r="F21">
-        <v>10.92131521226378</v>
+        <v>3.32778566926882</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1218,36 +1338,42 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2116540871900909</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.5406741068776597</v>
       </c>
       <c r="M21">
-        <v>1.317890197179651</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>2.645815162099439</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.122129227171456</v>
+        <v>6.344791471374947</v>
       </c>
       <c r="C22">
-        <v>1.280438269013274</v>
+        <v>0.8338525709191913</v>
       </c>
       <c r="D22">
-        <v>0.3561938136614629</v>
+        <v>0.03866031111668988</v>
       </c>
       <c r="E22">
-        <v>0.1085899858482371</v>
+        <v>0.0404901516465408</v>
       </c>
       <c r="F22">
-        <v>11.83889651514716</v>
+        <v>3.574856246677598</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1259,36 +1385,42 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2291080715183966</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.5840967440511946</v>
       </c>
       <c r="M22">
-        <v>1.43989678028602</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>2.837494411914776</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.888350948824723</v>
+        <v>6.086961532853877</v>
       </c>
       <c r="C23">
-        <v>1.220409303056556</v>
+        <v>0.803046486798678</v>
       </c>
       <c r="D23">
-        <v>0.3413824870342665</v>
+        <v>0.03886491716811236</v>
       </c>
       <c r="E23">
-        <v>0.1040980902206634</v>
+        <v>0.03996884305867887</v>
       </c>
       <c r="F23">
-        <v>11.34478156662601</v>
+        <v>3.441910236393028</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1300,36 +1432,42 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2197070868109563</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.5607915488234312</v>
       </c>
       <c r="M23">
-        <v>1.374172277664002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>2.734305876533412</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.045161643552319</v>
+        <v>5.134571282939817</v>
       </c>
       <c r="C24">
-        <v>1.005035473026965</v>
+        <v>0.6886828715985871</v>
       </c>
       <c r="D24">
-        <v>0.2880832458183562</v>
+        <v>0.03997511590436176</v>
       </c>
       <c r="E24">
-        <v>0.08791381204998672</v>
+        <v>0.03816543354703938</v>
       </c>
       <c r="F24">
-        <v>9.560678708157695</v>
+        <v>2.960464315545494</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1341,36 +1479,42 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1858048868500255</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.4751678791317175</v>
       </c>
       <c r="M24">
-        <v>1.137324253661774</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>2.361601532196815</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.201791324440649</v>
+        <v>4.147209857121766</v>
       </c>
       <c r="C25">
-        <v>0.7912182848106966</v>
+        <v>0.568942826268966</v>
       </c>
       <c r="D25">
-        <v>0.2349448945376338</v>
+        <v>0.04175789239117833</v>
       </c>
       <c r="E25">
-        <v>0.07178017957330951</v>
+        <v>0.03653039509892864</v>
       </c>
       <c r="F25">
-        <v>7.773802880359028</v>
+        <v>2.478862455426452</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1382,16 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1519266938178383</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.3872621114487487</v>
       </c>
       <c r="M25">
-        <v>0.9008063724201776</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>1.99056684816729</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_14/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_14/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.444730640408636</v>
+        <v>0.8112067867965038</v>
       </c>
       <c r="C2">
-        <v>0.4827799223516251</v>
+        <v>0.1482109611407765</v>
       </c>
       <c r="D2">
-        <v>0.04346714157036757</v>
+        <v>0.006836423752881515</v>
       </c>
       <c r="E2">
-        <v>0.03554641756431032</v>
+        <v>0.01820715066128242</v>
       </c>
       <c r="F2">
-        <v>2.148702092251867</v>
+        <v>3.563211219976253</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.378013083689609</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.08836777924851447</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.9077420779218528</v>
       </c>
       <c r="L2">
-        <v>0.3253528820898595</v>
+        <v>0.1480885365342672</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.1831921978197322</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.737508658975955</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.979850677767047</v>
+        <v>0.7189302984834853</v>
       </c>
       <c r="C3">
-        <v>0.4251772761458312</v>
+        <v>0.1283672673339993</v>
       </c>
       <c r="D3">
-        <v>0.04482977669624333</v>
+        <v>0.006563240875545162</v>
       </c>
       <c r="E3">
-        <v>0.03499698929167394</v>
+        <v>0.01824222240817353</v>
       </c>
       <c r="F3">
-        <v>1.936862154088445</v>
+        <v>3.389357402522222</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.275948252142513</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.08792990367820863</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.7991291568772567</v>
       </c>
       <c r="L3">
-        <v>0.2847295342129144</v>
+        <v>0.1394380547971039</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.1654215684863729</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.575853089234243</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.698770369059446</v>
+        <v>0.6634727544466443</v>
       </c>
       <c r="C4">
-        <v>0.3900699700073744</v>
+        <v>0.1163795804507117</v>
       </c>
       <c r="D4">
-        <v>0.04575512136987214</v>
+        <v>0.006390934896614908</v>
       </c>
       <c r="E4">
-        <v>0.03471185845856795</v>
+        <v>0.01827601981506755</v>
       </c>
       <c r="F4">
-        <v>1.811713720481308</v>
+        <v>3.28583584969661</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2.215202059036201</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.08769186207330293</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.7337525362870565</v>
       </c>
       <c r="L4">
-        <v>0.2603233370512896</v>
+        <v>0.1343239176132371</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.1547852671879184</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.480675252748611</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.585168798510722</v>
+        <v>0.6411500614171644</v>
       </c>
       <c r="C5">
-        <v>0.3758120293693992</v>
+        <v>0.1115377994754709</v>
       </c>
       <c r="D5">
-        <v>0.04615289700846148</v>
+        <v>0.006319504459609604</v>
       </c>
       <c r="E5">
-        <v>0.03460802618764625</v>
+        <v>0.0182928365309234</v>
       </c>
       <c r="F5">
-        <v>1.761824442911688</v>
+        <v>3.244405200552777</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.190897561610839</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.08760233971936948</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.7074104654869444</v>
       </c>
       <c r="L5">
-        <v>0.2504964349303833</v>
+        <v>0.1322867640198524</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1505150016892713</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.4428111153142</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.566357908056887</v>
+        <v>0.6374594031509559</v>
       </c>
       <c r="C6">
-        <v>0.3734469749712162</v>
+        <v>0.1107362703737067</v>
       </c>
       <c r="D6">
-        <v>0.04622015292518711</v>
+        <v>0.006307568377676986</v>
       </c>
       <c r="E6">
-        <v>0.03459151012837225</v>
+        <v>0.01829581169337269</v>
       </c>
       <c r="F6">
-        <v>1.753603855009914</v>
+        <v>3.237569722068969</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2.18688806964164</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.08758791896038076</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.7030536164379697</v>
       </c>
       <c r="L6">
-        <v>0.2488714165779982</v>
+        <v>0.1319512529002083</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.1498096592147284</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.436576589030096</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.697234683396914</v>
+        <v>0.6631706144949305</v>
       </c>
       <c r="C7">
-        <v>0.3898775071287446</v>
+        <v>0.1163141149330897</v>
       </c>
       <c r="D7">
-        <v>0.04576040414890059</v>
+        <v>0.006389976558331512</v>
       </c>
       <c r="E7">
-        <v>0.03471040906458178</v>
+        <v>0.0182762343358247</v>
       </c>
       <c r="F7">
-        <v>1.81103656423673</v>
+        <v>3.285274114779938</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2.21487250016267</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.0876906247924687</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.7333961043570412</v>
       </c>
       <c r="L7">
-        <v>0.2601903472183267</v>
+        <v>0.1342962574094315</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.1547274236928509</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.480161003429842</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.283437729210334</v>
+        <v>0.77912494357642</v>
       </c>
       <c r="C8">
-        <v>0.4628535707474839</v>
+        <v>0.1413242821033265</v>
       </c>
       <c r="D8">
-        <v>0.0439175520886117</v>
+        <v>0.006743137463930182</v>
       </c>
       <c r="E8">
-        <v>0.03534565243756305</v>
+        <v>0.0182166730662745</v>
       </c>
       <c r="F8">
-        <v>2.074557465080161</v>
+        <v>3.502562202834298</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.342401504756765</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.08821023763282554</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.8700009521689367</v>
       </c>
       <c r="L8">
-        <v>0.3112243815558031</v>
+        <v>0.1450632098447642</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.1770046873509017</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.680857517793513</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.475397635681986</v>
+        <v>1.01727632547238</v>
       </c>
       <c r="C9">
-        <v>0.6088992838981824</v>
+        <v>0.1922276015188515</v>
       </c>
       <c r="D9">
-        <v>0.04108935194421903</v>
+        <v>0.007402775919313598</v>
       </c>
       <c r="E9">
-        <v>0.03704413008221863</v>
+        <v>0.01819919355252431</v>
       </c>
       <c r="F9">
-        <v>2.636807074548756</v>
+        <v>3.956988919300755</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.609362216248613</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.08948673582967359</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.149795062491222</v>
       </c>
       <c r="L9">
-        <v>0.4163741386857254</v>
+        <v>0.1678758491305459</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.2231187370994512</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.11202618339999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.389408111252123</v>
+        <v>1.200701629091384</v>
       </c>
       <c r="C10">
-        <v>0.7193798252376098</v>
+        <v>0.231218301619819</v>
       </c>
       <c r="D10">
-        <v>0.03962196192259881</v>
+        <v>0.00787275507006413</v>
       </c>
       <c r="E10">
-        <v>0.03862803915057178</v>
+        <v>0.01825008217107982</v>
       </c>
       <c r="F10">
-        <v>3.087749059547377</v>
+        <v>4.312280651063674</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.818258046324786</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.09060130169151748</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.364915393711044</v>
       </c>
       <c r="L10">
-        <v>0.4980041146374248</v>
+        <v>0.1858750615794875</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.2588560993000328</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.459978726665383</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.816778543790576</v>
+        <v>1.286451455336845</v>
       </c>
       <c r="C11">
-        <v>0.770698338528149</v>
+        <v>0.2494162176823522</v>
       </c>
       <c r="D11">
-        <v>0.03912241934617455</v>
+        <v>0.008084816329322564</v>
       </c>
       <c r="E11">
-        <v>0.03943708968588844</v>
+        <v>0.01828789034259515</v>
       </c>
       <c r="F11">
-        <v>3.303759223856048</v>
+        <v>4.479589360625909</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.916669933536582</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.09115155962643229</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.465422940002668</v>
       </c>
       <c r="L11">
-        <v>0.5364252496706001</v>
+        <v>0.1943825848249858</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.2756105783456704</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.627196195688725</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.980594937558749</v>
+        <v>1.319297933430192</v>
       </c>
       <c r="C12">
-        <v>0.7903198940879008</v>
+        <v>0.2563841894087773</v>
       </c>
       <c r="D12">
-        <v>0.03896098342093879</v>
+        <v>0.008165010204391976</v>
       </c>
       <c r="E12">
-        <v>0.0397576899536638</v>
+        <v>0.01830439307640663</v>
       </c>
       <c r="F12">
-        <v>3.38737851747203</v>
+        <v>4.543856640192843</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.954478630812019</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.09136658958442112</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.503915912320508</v>
       </c>
       <c r="L12">
-        <v>0.5511920542288067</v>
+        <v>0.1976547442525813</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.2820351887979626</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.692012187831537</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.945220553203853</v>
+        <v>1.312206454350672</v>
       </c>
       <c r="C13">
-        <v>0.7860850337255272</v>
+        <v>0.2548799157308679</v>
       </c>
       <c r="D13">
-        <v>0.03899445486383968</v>
+        <v>0.008147741414788356</v>
       </c>
       <c r="E13">
-        <v>0.03968798391028727</v>
+        <v>0.0183007403735802</v>
       </c>
       <c r="F13">
-        <v>3.369284120941757</v>
+        <v>4.529973419830441</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.946310790336867</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.09131997537815195</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.495605619311391</v>
       </c>
       <c r="L13">
-        <v>0.5480015157601201</v>
+        <v>0.1969477002265592</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.2806478285670693</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.677982768081591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.830214157272167</v>
+        <v>1.289145980608566</v>
       </c>
       <c r="C14">
-        <v>0.7723086158516708</v>
+        <v>0.2499878730305909</v>
       </c>
       <c r="D14">
-        <v>0.03910855955527737</v>
+        <v>0.008091415237386101</v>
       </c>
       <c r="E14">
-        <v>0.03946317112603026</v>
+        <v>0.01828920375102872</v>
       </c>
       <c r="F14">
-        <v>3.310600532461649</v>
+        <v>4.484857839243261</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.919769272253987</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.09116911412923656</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.468580785532822</v>
       </c>
       <c r="L14">
-        <v>0.5376355609007817</v>
+        <v>0.1946507464508045</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.2761374786156523</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.632497385019889</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.760037463741412</v>
+        <v>1.275070941467419</v>
       </c>
       <c r="C15">
-        <v>0.7638958484988336</v>
+        <v>0.2470016912145923</v>
       </c>
       <c r="D15">
-        <v>0.03918217947249758</v>
+        <v>0.008056904132319076</v>
       </c>
       <c r="E15">
-        <v>0.03932736809333903</v>
+        <v>0.01828242433239069</v>
       </c>
       <c r="F15">
-        <v>3.274900547880236</v>
+        <v>4.457344832104809</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.903584186693536</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.09107758831265045</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.452085314537101</v>
       </c>
       <c r="L15">
-        <v>0.5313154886722629</v>
+        <v>0.193250522293404</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.2733854520356047</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.604837636603548</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.361737425253523</v>
+        <v>1.19514770348826</v>
       </c>
       <c r="C16">
-        <v>0.7160503218911742</v>
+        <v>0.2300391752460058</v>
       </c>
       <c r="D16">
-        <v>0.03965828081647516</v>
+        <v>0.007858872998877331</v>
       </c>
       <c r="E16">
-        <v>0.03857707081498951</v>
+        <v>0.01824791272010096</v>
       </c>
       <c r="F16">
-        <v>3.073872269406706</v>
+        <v>4.301468824098436</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.81189932813497</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.09056624790623502</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.358404616352402</v>
       </c>
       <c r="L16">
-        <v>0.4955217765688928</v>
+        <v>0.185325887995667</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.2577718732988181</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.449247678084376</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.120570121735454</v>
+        <v>1.146737904168617</v>
       </c>
       <c r="C17">
-        <v>0.6869941021931538</v>
+        <v>0.2197584216604582</v>
       </c>
       <c r="D17">
-        <v>0.03999574266912376</v>
+        <v>0.007737036629654526</v>
       </c>
       <c r="E17">
-        <v>0.03814046616439981</v>
+        <v>0.01823054781926103</v>
       </c>
       <c r="F17">
-        <v>2.953504934109475</v>
+        <v>4.207363757614445</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.756558305267049</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.09026393263214061</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.301648292531979</v>
       </c>
       <c r="L17">
-        <v>0.4739148769071164</v>
+        <v>0.1805493625790078</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.2483266470515986</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.356226198785549</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.982925965226286</v>
+        <v>1.119108369273704</v>
       </c>
       <c r="C18">
-        <v>0.6703791004338484</v>
+        <v>0.2138878887563607</v>
       </c>
       <c r="D18">
-        <v>0.04020540758403968</v>
+        <v>0.007666786777377865</v>
       </c>
       <c r="E18">
-        <v>0.03789757394144644</v>
+        <v>0.01822193455824106</v>
       </c>
       <c r="F18">
-        <v>2.885278992477168</v>
+        <v>4.153765967009747</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.725042510349695</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.09009408970912602</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.269249404085031</v>
       </c>
       <c r="L18">
-        <v>0.4616061302221794</v>
+        <v>0.1778318129834275</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.2429402596170078</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.303549241292316</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.936496722758363</v>
+        <v>1.109789085995203</v>
       </c>
       <c r="C19">
-        <v>0.6647692618220162</v>
+        <v>0.2119072545311695</v>
       </c>
       <c r="D19">
-        <v>0.04027897031122052</v>
+        <v>0.007642967755758789</v>
       </c>
       <c r="E19">
-        <v>0.03781670603010667</v>
+        <v>0.01821925212119435</v>
       </c>
       <c r="F19">
-        <v>2.862344416178075</v>
+        <v>4.135706816904246</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.714424279242124</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.09003726502789888</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.258320417269374</v>
       </c>
       <c r="L19">
-        <v>0.4574581174698693</v>
+        <v>0.1769166797700663</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.2411242196409944</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.285849767857286</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.146130026663911</v>
+        <v>1.15186871272391</v>
       </c>
       <c r="C20">
-        <v>0.6900768663759038</v>
+        <v>0.2208483348044865</v>
       </c>
       <c r="D20">
-        <v>0.03995818422769659</v>
+        <v>0.007750023250880034</v>
       </c>
       <c r="E20">
-        <v>0.03818608134343826</v>
+        <v>0.01823225354639391</v>
       </c>
       <c r="F20">
-        <v>2.966212360471872</v>
+        <v>4.217326008204623</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.76241647503582</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.09029569332875553</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.307664294708871</v>
       </c>
       <c r="L20">
-        <v>0.4762024346511993</v>
+        <v>0.1810547177752539</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.2493272609710644</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.366041524620357</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.863937835121646</v>
+        <v>1.295908863280374</v>
       </c>
       <c r="C21">
-        <v>0.7763496587791963</v>
+        <v>0.2514226102157977</v>
       </c>
       <c r="D21">
-        <v>0.03907426019232929</v>
+        <v>0.008107961341424996</v>
       </c>
       <c r="E21">
-        <v>0.03952880488608557</v>
+        <v>0.01829253235407613</v>
       </c>
       <c r="F21">
-        <v>3.32778566926882</v>
+        <v>4.498083859617736</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.927549972553734</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.09121324127553976</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.47650644234011</v>
       </c>
       <c r="L21">
-        <v>0.5406741068776597</v>
+        <v>0.1953240068496953</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.2774600328686319</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.645815162099439</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.344791471374947</v>
+        <v>1.392255635254372</v>
       </c>
       <c r="C22">
-        <v>0.8338525709191913</v>
+        <v>0.2718581304812631</v>
       </c>
       <c r="D22">
-        <v>0.03866031111668988</v>
+        <v>0.008341339161965777</v>
       </c>
       <c r="E22">
-        <v>0.0404901516465408</v>
+        <v>0.01834471047072039</v>
       </c>
       <c r="F22">
-        <v>3.574856246677598</v>
+        <v>4.686936259633626</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.038664779751215</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.09185196311933908</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.589406233404731</v>
       </c>
       <c r="L22">
-        <v>0.5840967440511946</v>
+        <v>0.2049468938663637</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.2963176300412798</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.837494411914776</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.086961532853877</v>
+        <v>1.340616171832266</v>
       </c>
       <c r="C23">
-        <v>0.803046486798678</v>
+        <v>0.2609060347107857</v>
       </c>
       <c r="D23">
-        <v>0.03886491716811236</v>
+        <v>0.008216779926918605</v>
       </c>
       <c r="E23">
-        <v>0.03996884305867887</v>
+        <v>0.01831566423776732</v>
       </c>
       <c r="F23">
-        <v>3.441910236393028</v>
+        <v>4.585618249751633</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.979048949022825</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.0915073348660016</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.528897363897073</v>
       </c>
       <c r="L23">
-        <v>0.5607915488234312</v>
+        <v>0.1997821576225505</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.2862068128248225</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.734305876533412</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.134571282939817</v>
+        <v>1.149548448479663</v>
       </c>
       <c r="C24">
-        <v>0.6886828715985871</v>
+        <v>0.2203554612351439</v>
       </c>
       <c r="D24">
-        <v>0.03997511590436176</v>
+        <v>0.007744152646361968</v>
       </c>
       <c r="E24">
-        <v>0.03816543354703938</v>
+        <v>0.01823147812554993</v>
       </c>
       <c r="F24">
-        <v>2.960464315545494</v>
+        <v>4.212820510381022</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.759767064642134</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.09028132200955952</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.304943744242763</v>
       </c>
       <c r="L24">
-        <v>0.4751678791317175</v>
+        <v>0.180826158141258</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.2488747476284274</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.361601532196815</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.147209857121766</v>
+        <v>0.9515122941807306</v>
       </c>
       <c r="C25">
-        <v>0.568942826268966</v>
+        <v>0.1782131039203705</v>
       </c>
       <c r="D25">
-        <v>0.04175789239117833</v>
+        <v>0.007227335874590679</v>
       </c>
       <c r="E25">
-        <v>0.03653039509892864</v>
+        <v>0.01819298263799585</v>
       </c>
       <c r="F25">
-        <v>2.478862455426452</v>
+        <v>3.830614423563247</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.535093088281798</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.08911190030481109</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.072603632933095</v>
       </c>
       <c r="L25">
-        <v>0.3872621114487487</v>
+        <v>0.1615026614872548</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.2103467777554826</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.99056684816729</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_14/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_14/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8112067867965038</v>
+        <v>1.113956600348786</v>
       </c>
       <c r="C2">
-        <v>0.1482109611407765</v>
+        <v>0.07041660960565821</v>
       </c>
       <c r="D2">
-        <v>0.006836423752881515</v>
+        <v>0.002230355564519115</v>
       </c>
       <c r="E2">
-        <v>0.01820715066128242</v>
+        <v>0.06147272907016665</v>
       </c>
       <c r="F2">
-        <v>3.563211219976253</v>
+        <v>4.984343643786957</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
-        <v>2.378013083689609</v>
+        <v>3.280589368861399</v>
       </c>
       <c r="J2">
-        <v>0.08836777924851447</v>
+        <v>0.1775483532455873</v>
       </c>
       <c r="K2">
-        <v>0.9077420779218528</v>
+        <v>0.9994063224198442</v>
       </c>
       <c r="L2">
-        <v>0.1480885365342672</v>
+        <v>0.326208326667448</v>
       </c>
       <c r="M2">
-        <v>0.1831921978197322</v>
+        <v>0.3088152948878466</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7189302984834853</v>
+        <v>1.101395631268787</v>
       </c>
       <c r="C3">
-        <v>0.1283672673339993</v>
+        <v>0.0653133134775743</v>
       </c>
       <c r="D3">
-        <v>0.006563240875545162</v>
+        <v>0.002203931866427311</v>
       </c>
       <c r="E3">
-        <v>0.01824222240817353</v>
+        <v>0.06170422803215736</v>
       </c>
       <c r="F3">
-        <v>3.389357402522222</v>
+        <v>4.944654813428286</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
-        <v>2.275948252142513</v>
+        <v>3.255442672115777</v>
       </c>
       <c r="J3">
-        <v>0.08792990367820863</v>
+        <v>0.1775156476803286</v>
       </c>
       <c r="K3">
-        <v>0.7991291568772567</v>
+        <v>0.9807796220937064</v>
       </c>
       <c r="L3">
-        <v>0.1394380547971039</v>
+        <v>0.3260158177419541</v>
       </c>
       <c r="M3">
-        <v>0.1654215684863729</v>
+        <v>0.3069278121838401</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6634727544466443</v>
+        <v>1.094444579545865</v>
       </c>
       <c r="C4">
-        <v>0.1163795804507117</v>
+        <v>0.06222300632200017</v>
       </c>
       <c r="D4">
-        <v>0.006390934896614908</v>
+        <v>0.002190876950550091</v>
       </c>
       <c r="E4">
-        <v>0.01827601981506755</v>
+        <v>0.06185837856750354</v>
       </c>
       <c r="F4">
-        <v>3.28583584969661</v>
+        <v>4.921493858767292</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
-        <v>2.215202059036201</v>
+        <v>3.240666928315861</v>
       </c>
       <c r="J4">
-        <v>0.08769186207330293</v>
+        <v>0.1775099148167723</v>
       </c>
       <c r="K4">
-        <v>0.7337525362870565</v>
+        <v>0.9700475144178995</v>
       </c>
       <c r="L4">
-        <v>0.1343239176132371</v>
+        <v>0.3260330249506893</v>
       </c>
       <c r="M4">
-        <v>0.1547852671879184</v>
+        <v>0.3059494516714381</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6411500614171644</v>
+        <v>1.09180370621101</v>
       </c>
       <c r="C5">
-        <v>0.1115377994754709</v>
+        <v>0.06097446241061277</v>
       </c>
       <c r="D5">
-        <v>0.006319504459609604</v>
+        <v>0.002186354025598192</v>
       </c>
       <c r="E5">
-        <v>0.0182928365309234</v>
+        <v>0.06192422509743567</v>
       </c>
       <c r="F5">
-        <v>3.244405200552777</v>
+        <v>4.912359305783085</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
-        <v>2.190897561610839</v>
+        <v>3.2348126497252</v>
       </c>
       <c r="J5">
-        <v>0.08760233971936948</v>
+        <v>0.1775111897703674</v>
       </c>
       <c r="K5">
-        <v>0.7074104654869444</v>
+        <v>0.9658514350862788</v>
       </c>
       <c r="L5">
-        <v>0.1322867640198524</v>
+        <v>0.3260741512716123</v>
       </c>
       <c r="M5">
-        <v>0.1505150016892713</v>
+        <v>0.3055962387205007</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6374594031509559</v>
+        <v>1.091376779643184</v>
       </c>
       <c r="C6">
-        <v>0.1107362703737067</v>
+        <v>0.06076779190237858</v>
       </c>
       <c r="D6">
-        <v>0.006307568377676986</v>
+        <v>0.002185651140839795</v>
       </c>
       <c r="E6">
-        <v>0.01829581169337269</v>
+        <v>0.0619353420725206</v>
       </c>
       <c r="F6">
-        <v>3.237569722068969</v>
+        <v>4.910860862385633</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
-        <v>2.18688806964164</v>
+        <v>3.233850631598116</v>
       </c>
       <c r="J6">
-        <v>0.08758791896038076</v>
+        <v>0.1775116196712645</v>
       </c>
       <c r="K6">
-        <v>0.7030536164379697</v>
+        <v>0.9651653941052416</v>
       </c>
       <c r="L6">
-        <v>0.1319512529002083</v>
+        <v>0.3260830425985759</v>
       </c>
       <c r="M6">
-        <v>0.1498096592147284</v>
+        <v>0.3055403368529319</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6631706144949305</v>
+        <v>1.09440818711272</v>
       </c>
       <c r="C7">
-        <v>0.1163141149330897</v>
+        <v>0.06220612445581253</v>
       </c>
       <c r="D7">
-        <v>0.006389976558331512</v>
+        <v>0.002190812725126889</v>
       </c>
       <c r="E7">
-        <v>0.0182762343358247</v>
+        <v>0.06185925432043327</v>
       </c>
       <c r="F7">
-        <v>3.285274114779938</v>
+        <v>4.921369437341355</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
-        <v>2.21487250016267</v>
+        <v>3.240587299636744</v>
       </c>
       <c r="J7">
-        <v>0.0876906247924687</v>
+        <v>0.1775099173856614</v>
       </c>
       <c r="K7">
-        <v>0.7333961043570412</v>
+        <v>0.9699902064082266</v>
       </c>
       <c r="L7">
-        <v>0.1342962574094315</v>
+        <v>0.3260334413809147</v>
       </c>
       <c r="M7">
-        <v>0.1547274236928509</v>
+        <v>0.3059445038860638</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.77912494357642</v>
+        <v>1.109467693689879</v>
       </c>
       <c r="C8">
-        <v>0.1413242821033265</v>
+        <v>0.06864799846454162</v>
       </c>
       <c r="D8">
-        <v>0.006743137463930182</v>
+        <v>0.00222058690343907</v>
       </c>
       <c r="E8">
-        <v>0.0182166730662745</v>
+        <v>0.06155006284918274</v>
       </c>
       <c r="F8">
-        <v>3.502562202834298</v>
+        <v>4.970408120038016</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
-        <v>2.342401504756765</v>
+        <v>3.271780802485821</v>
       </c>
       <c r="J8">
-        <v>0.08821023763282554</v>
+        <v>0.1775341001085238</v>
       </c>
       <c r="K8">
-        <v>0.8700009521689367</v>
+        <v>0.9928376259279048</v>
       </c>
       <c r="L8">
-        <v>0.1450632098447642</v>
+        <v>0.326113883363405</v>
       </c>
       <c r="M8">
-        <v>0.1770046873509017</v>
+        <v>0.308127057352781</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.01727632547238</v>
+        <v>1.14503288877799</v>
       </c>
       <c r="C9">
-        <v>0.1922276015188515</v>
+        <v>0.08162646807340934</v>
       </c>
       <c r="D9">
-        <v>0.007402775919313598</v>
+        <v>0.002304129704372215</v>
       </c>
       <c r="E9">
-        <v>0.01819919355252431</v>
+        <v>0.06103862800943816</v>
       </c>
       <c r="F9">
-        <v>3.956988919300755</v>
+        <v>5.076170379350856</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
-        <v>2.609362216248613</v>
+        <v>3.338233256549344</v>
       </c>
       <c r="J9">
-        <v>0.08948673582967359</v>
+        <v>0.1776952742083253</v>
       </c>
       <c r="K9">
-        <v>1.149795062491222</v>
+        <v>1.043232231780735</v>
       </c>
       <c r="L9">
-        <v>0.1678758491305459</v>
+        <v>0.3273435713869475</v>
       </c>
       <c r="M9">
-        <v>0.2231187370994512</v>
+        <v>0.3138372194715835</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.200701629091384</v>
+        <v>1.174835432528567</v>
       </c>
       <c r="C10">
-        <v>0.231218301619819</v>
+        <v>0.09137883456013185</v>
       </c>
       <c r="D10">
-        <v>0.00787275507006413</v>
+        <v>0.002380874737957228</v>
       </c>
       <c r="E10">
-        <v>0.01825008217107982</v>
+        <v>0.06072018855940353</v>
       </c>
       <c r="F10">
-        <v>4.312280651063674</v>
+        <v>5.159752352218817</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
-        <v>2.818258046324786</v>
+        <v>3.390296884204432</v>
       </c>
       <c r="J10">
-        <v>0.09060130169151748</v>
+        <v>0.177882962879778</v>
       </c>
       <c r="K10">
-        <v>1.364915393711044</v>
+        <v>1.083670504081368</v>
       </c>
       <c r="L10">
-        <v>0.1858750615794875</v>
+        <v>0.3288977550276044</v>
       </c>
       <c r="M10">
-        <v>0.2588560993000328</v>
+        <v>0.3189020754153837</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.286451455336845</v>
+        <v>1.189190207051553</v>
       </c>
       <c r="C11">
-        <v>0.2494162176823522</v>
+        <v>0.09586397661198021</v>
       </c>
       <c r="D11">
-        <v>0.008084816329322564</v>
+        <v>0.002419133039650134</v>
       </c>
       <c r="E11">
-        <v>0.01828789034259515</v>
+        <v>0.06058765482392836</v>
       </c>
       <c r="F11">
-        <v>4.479589360625909</v>
+        <v>5.199059108563802</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
-        <v>2.916669933536582</v>
+        <v>3.414690671700512</v>
       </c>
       <c r="J11">
-        <v>0.09115155962643229</v>
+        <v>0.1779833785011249</v>
       </c>
       <c r="K11">
-        <v>1.465422940002668</v>
+        <v>1.10280968935092</v>
       </c>
       <c r="L11">
-        <v>0.1943825848249858</v>
+        <v>0.3297455607443283</v>
       </c>
       <c r="M11">
-        <v>0.2756105783456704</v>
+        <v>0.3213946448100131</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.319297933430192</v>
+        <v>1.194740505880702</v>
       </c>
       <c r="C12">
-        <v>0.2563841894087773</v>
+        <v>0.09756948384833208</v>
       </c>
       <c r="D12">
-        <v>0.008165010204391976</v>
+        <v>0.002434102115588033</v>
       </c>
       <c r="E12">
-        <v>0.01830439307640663</v>
+        <v>0.06053923125741179</v>
       </c>
       <c r="F12">
-        <v>4.543856640192843</v>
+        <v>5.214128627864312</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
-        <v>2.954478630812019</v>
+        <v>3.424030286818422</v>
       </c>
       <c r="J12">
-        <v>0.09136658958442112</v>
+        <v>0.1780235633236806</v>
       </c>
       <c r="K12">
-        <v>1.503915912320508</v>
+        <v>1.110164144121001</v>
       </c>
       <c r="L12">
-        <v>0.1976547442525813</v>
+        <v>0.3300867968577492</v>
       </c>
       <c r="M12">
-        <v>0.2820351887979626</v>
+        <v>0.3223655774541641</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.312206454350672</v>
+        <v>1.193540062554945</v>
       </c>
       <c r="C13">
-        <v>0.2548799157308679</v>
+        <v>0.09720185624911437</v>
       </c>
       <c r="D13">
-        <v>0.008147741414788356</v>
+        <v>0.002430856839691131</v>
       </c>
       <c r="E13">
-        <v>0.0183007403735802</v>
+        <v>0.0605495818133992</v>
       </c>
       <c r="F13">
-        <v>4.529973419830441</v>
+        <v>5.2108749113832</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
-        <v>2.946310790336867</v>
+        <v>3.422014285028993</v>
       </c>
       <c r="J13">
-        <v>0.09131997537815195</v>
+        <v>0.1780148127930481</v>
       </c>
       <c r="K13">
-        <v>1.495605619311391</v>
+        <v>1.108575479084294</v>
       </c>
       <c r="L13">
-        <v>0.1969477002265592</v>
+        <v>0.3300124084666862</v>
       </c>
       <c r="M13">
-        <v>0.2806478285670693</v>
+        <v>0.3221552676104409</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.289145980608566</v>
+        <v>1.189644540790425</v>
       </c>
       <c r="C14">
-        <v>0.2499878730305909</v>
+        <v>0.09600414738289942</v>
       </c>
       <c r="D14">
-        <v>0.008091415237386101</v>
+        <v>0.002420354903154731</v>
       </c>
       <c r="E14">
-        <v>0.01828920375102872</v>
+        <v>0.06058363568085312</v>
       </c>
       <c r="F14">
-        <v>4.484857839243261</v>
+        <v>5.200295180442936</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
-        <v>2.919769272253987</v>
+        <v>3.415456998001204</v>
       </c>
       <c r="J14">
-        <v>0.09116911412923656</v>
+        <v>0.1779866412629048</v>
       </c>
       <c r="K14">
-        <v>1.468580785532822</v>
+        <v>1.103412603501425</v>
       </c>
       <c r="L14">
-        <v>0.1946507464508045</v>
+        <v>0.3297732301175671</v>
       </c>
       <c r="M14">
-        <v>0.2761374786156523</v>
+        <v>0.321473982232618</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.275070941467419</v>
+        <v>1.187273320676866</v>
       </c>
       <c r="C15">
-        <v>0.2470016912145923</v>
+        <v>0.09527144046924718</v>
       </c>
       <c r="D15">
-        <v>0.008056904132319076</v>
+        <v>0.002413984877323472</v>
       </c>
       <c r="E15">
-        <v>0.01828242433239069</v>
+        <v>0.06060472414620399</v>
       </c>
       <c r="F15">
-        <v>4.457344832104809</v>
+        <v>5.19383887381116</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
-        <v>2.903584186693536</v>
+        <v>3.411453786569922</v>
       </c>
       <c r="J15">
-        <v>0.09107758831265045</v>
+        <v>0.177969666560351</v>
       </c>
       <c r="K15">
-        <v>1.452085314537101</v>
+        <v>1.100264107582859</v>
       </c>
       <c r="L15">
-        <v>0.193250522293404</v>
+        <v>0.3296293542119599</v>
       </c>
       <c r="M15">
-        <v>0.2733854520356047</v>
+        <v>0.3210601962729385</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.19514770348826</v>
+        <v>1.173913342439391</v>
       </c>
       <c r="C16">
-        <v>0.2300391752460058</v>
+        <v>0.09108670694729426</v>
       </c>
       <c r="D16">
-        <v>0.007858872998877331</v>
+        <v>0.002378441830147793</v>
       </c>
       <c r="E16">
-        <v>0.01824791272010096</v>
+        <v>0.0607290972629535</v>
       </c>
       <c r="F16">
-        <v>4.301468824098436</v>
+        <v>5.157209430303652</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
-        <v>2.81189932813497</v>
+        <v>3.388716988366127</v>
       </c>
       <c r="J16">
-        <v>0.09056624790623502</v>
+        <v>0.1778767028198551</v>
       </c>
       <c r="K16">
-        <v>1.358404616352402</v>
+        <v>1.082434670575566</v>
       </c>
       <c r="L16">
-        <v>0.185325887995667</v>
+        <v>0.3288451773459968</v>
       </c>
       <c r="M16">
-        <v>0.2577718732988181</v>
+        <v>0.3187429688033276</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.146737904168617</v>
+        <v>1.165921519225833</v>
       </c>
       <c r="C17">
-        <v>0.2197584216604582</v>
+        <v>0.08853204357777145</v>
       </c>
       <c r="D17">
-        <v>0.007737036629654526</v>
+        <v>0.002357494634466661</v>
       </c>
       <c r="E17">
-        <v>0.01823054781926103</v>
+        <v>0.06080854713337303</v>
       </c>
       <c r="F17">
-        <v>4.207363757614445</v>
+        <v>5.135067642617457</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
-        <v>2.756558305267049</v>
+        <v>3.374950598697779</v>
       </c>
       <c r="J17">
-        <v>0.09026393263214061</v>
+        <v>0.1778235216978317</v>
       </c>
       <c r="K17">
-        <v>1.301648292531979</v>
+        <v>1.071687293696812</v>
       </c>
       <c r="L17">
-        <v>0.1805493625790078</v>
+        <v>0.3284001320819172</v>
       </c>
       <c r="M17">
-        <v>0.2483266470515986</v>
+        <v>0.3173696706694074</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.119108369273704</v>
+        <v>1.161399905893006</v>
       </c>
       <c r="C18">
-        <v>0.2138878887563607</v>
+        <v>0.08706725220189071</v>
       </c>
       <c r="D18">
-        <v>0.007666786777377865</v>
+        <v>0.002345761342585462</v>
       </c>
       <c r="E18">
-        <v>0.01822193455824106</v>
+        <v>0.06085540527226652</v>
       </c>
       <c r="F18">
-        <v>4.153765967009747</v>
+        <v>5.122453204132142</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
-        <v>2.725042510349695</v>
+        <v>3.367099334348964</v>
       </c>
       <c r="J18">
-        <v>0.09009408970912602</v>
+        <v>0.1777943486423048</v>
       </c>
       <c r="K18">
-        <v>1.269249404085031</v>
+        <v>1.065575682862885</v>
       </c>
       <c r="L18">
-        <v>0.1778318129834275</v>
+        <v>0.3281574098761482</v>
       </c>
       <c r="M18">
-        <v>0.2429402596170078</v>
+        <v>0.3165975358548252</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.109789085995203</v>
+        <v>1.159881865651357</v>
       </c>
       <c r="C19">
-        <v>0.2119072545311695</v>
+        <v>0.0865720840266988</v>
       </c>
       <c r="D19">
-        <v>0.007642967755758789</v>
+        <v>0.002341842741806488</v>
       </c>
       <c r="E19">
-        <v>0.01821925212119435</v>
+        <v>0.06087147023627892</v>
       </c>
       <c r="F19">
-        <v>4.135706816904246</v>
+        <v>5.118202938131247</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
-        <v>2.714424279242124</v>
+        <v>3.364452499339166</v>
       </c>
       <c r="J19">
-        <v>0.09003726502789888</v>
+        <v>0.1777847143030939</v>
       </c>
       <c r="K19">
-        <v>1.258320417269374</v>
+        <v>1.063518420578418</v>
       </c>
       <c r="L19">
-        <v>0.1769166797700663</v>
+        <v>0.3280775067788753</v>
       </c>
       <c r="M19">
-        <v>0.2411242196409944</v>
+        <v>0.3163391547339742</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.15186871272391</v>
+        <v>1.166764494353231</v>
       </c>
       <c r="C20">
-        <v>0.2208483348044865</v>
+        <v>0.08880351696635103</v>
       </c>
       <c r="D20">
-        <v>0.007750023250880034</v>
+        <v>0.002359691898762506</v>
       </c>
       <c r="E20">
-        <v>0.01823225354639391</v>
+        <v>0.0607999694946022</v>
       </c>
       <c r="F20">
-        <v>4.217326008204623</v>
+        <v>5.137412156690772</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
-        <v>2.76241647503582</v>
+        <v>3.376409139839708</v>
       </c>
       <c r="J20">
-        <v>0.09029569332875553</v>
+        <v>0.1778290364556732</v>
       </c>
       <c r="K20">
-        <v>1.307664294708871</v>
+        <v>1.072824126505623</v>
       </c>
       <c r="L20">
-        <v>0.1810547177752539</v>
+        <v>0.3284461363685836</v>
       </c>
       <c r="M20">
-        <v>0.2493272609710644</v>
+        <v>0.3175140239948497</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.295908863280374</v>
+        <v>1.190785645304402</v>
       </c>
       <c r="C21">
-        <v>0.2514226102157977</v>
+        <v>0.09635575074526059</v>
       </c>
       <c r="D21">
-        <v>0.008107961341424996</v>
+        <v>0.002423426507021986</v>
       </c>
       <c r="E21">
-        <v>0.01829253235407613</v>
+        <v>0.06057358542409208</v>
       </c>
       <c r="F21">
-        <v>4.498083859617736</v>
+        <v>5.203397684530415</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
-        <v>2.927549972553734</v>
+        <v>3.417380256792768</v>
       </c>
       <c r="J21">
-        <v>0.09121324127553976</v>
+        <v>0.1779948573321413</v>
       </c>
       <c r="K21">
-        <v>1.47650644234011</v>
+        <v>1.104926165566752</v>
       </c>
       <c r="L21">
-        <v>0.1953240068496953</v>
+        <v>0.329842935077032</v>
       </c>
       <c r="M21">
-        <v>0.2774600328686319</v>
+        <v>0.3216733585956035</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.392255635254372</v>
+        <v>1.207151905424865</v>
       </c>
       <c r="C22">
-        <v>0.2718581304812631</v>
+        <v>0.1013328813222643</v>
       </c>
       <c r="D22">
-        <v>0.008341339161965777</v>
+        <v>0.002467887378497124</v>
       </c>
       <c r="E22">
-        <v>0.01834471047072039</v>
+        <v>0.06043590893844897</v>
       </c>
       <c r="F22">
-        <v>4.686936259633626</v>
+        <v>5.247600868285474</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
-        <v>3.038664779751215</v>
+        <v>3.444753121512463</v>
       </c>
       <c r="J22">
-        <v>0.09185196311933908</v>
+        <v>0.1781158175844979</v>
       </c>
       <c r="K22">
-        <v>1.589406233404731</v>
+        <v>1.126529541851937</v>
       </c>
       <c r="L22">
-        <v>0.2049468938663637</v>
+        <v>0.3308734838418417</v>
       </c>
       <c r="M22">
-        <v>0.2963176300412798</v>
+        <v>0.3245493689795111</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.340616171832266</v>
+        <v>1.198355958633528</v>
       </c>
       <c r="C23">
-        <v>0.2609060347107857</v>
+        <v>0.0986726891812566</v>
       </c>
       <c r="D23">
-        <v>0.008216779926918605</v>
+        <v>0.002443900875606531</v>
       </c>
       <c r="E23">
-        <v>0.01831566423776732</v>
+        <v>0.06050845172590513</v>
       </c>
       <c r="F23">
-        <v>4.585618249751633</v>
+        <v>5.223910129757797</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
-        <v>2.979048949022825</v>
+        <v>3.430089135840888</v>
       </c>
       <c r="J23">
-        <v>0.0915073348660016</v>
+        <v>0.1780501079316821</v>
       </c>
       <c r="K23">
-        <v>1.528897363897073</v>
+        <v>1.114942445047348</v>
       </c>
       <c r="L23">
-        <v>0.1997821576225505</v>
+        <v>0.3303127130680608</v>
       </c>
       <c r="M23">
-        <v>0.2862068128248225</v>
+        <v>0.3229999834913571</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.149548448479663</v>
+        <v>1.166383157914197</v>
       </c>
       <c r="C24">
-        <v>0.2203554612351439</v>
+        <v>0.08868077164837018</v>
       </c>
       <c r="D24">
-        <v>0.007744152646361968</v>
+        <v>0.002358697551549938</v>
       </c>
       <c r="E24">
-        <v>0.01823147812554993</v>
+        <v>0.06080384376486947</v>
       </c>
       <c r="F24">
-        <v>4.212820510381022</v>
+        <v>5.13635184310715</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
-        <v>2.759767064642134</v>
+        <v>3.375749536462195</v>
       </c>
       <c r="J24">
-        <v>0.09028132200955952</v>
+        <v>0.1778265388683771</v>
       </c>
       <c r="K24">
-        <v>1.304943744242763</v>
+        <v>1.072309955066942</v>
       </c>
       <c r="L24">
-        <v>0.180826158141258</v>
+        <v>0.3284252968959862</v>
       </c>
       <c r="M24">
-        <v>0.2488747476284274</v>
+        <v>0.3174487076749841</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9515122941807306</v>
+        <v>1.134766212050437</v>
       </c>
       <c r="C25">
-        <v>0.1782131039203705</v>
+        <v>0.07807777416979889</v>
       </c>
       <c r="D25">
-        <v>0.007227335874590679</v>
+        <v>0.002278833049633278</v>
       </c>
       <c r="E25">
-        <v>0.01819298263799585</v>
+        <v>0.0611668817791795</v>
       </c>
       <c r="F25">
-        <v>3.830614423563247</v>
+        <v>5.046528571265952</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
-        <v>2.535093088281798</v>
+        <v>3.319688466478851</v>
       </c>
       <c r="J25">
-        <v>0.08911190030481109</v>
+        <v>0.1776395019327595</v>
       </c>
       <c r="K25">
-        <v>1.072603632933095</v>
+        <v>1.029000119570185</v>
       </c>
       <c r="L25">
-        <v>0.1615026614872548</v>
+        <v>0.3268964371138097</v>
       </c>
       <c r="M25">
-        <v>0.2103467777554826</v>
+        <v>0.3121395989906546</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_14/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_14/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.113956600348786</v>
+        <v>0.8112067867963901</v>
       </c>
       <c r="C2">
-        <v>0.07041660960565821</v>
+        <v>0.1482109611410038</v>
       </c>
       <c r="D2">
-        <v>0.002230355564519115</v>
+        <v>0.006836423752860199</v>
       </c>
       <c r="E2">
-        <v>0.06147272907016665</v>
+        <v>0.01820715066130196</v>
       </c>
       <c r="F2">
-        <v>4.984343643786957</v>
+        <v>3.563211219976324</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I2">
-        <v>3.280589368861399</v>
+        <v>2.378013083689623</v>
       </c>
       <c r="J2">
-        <v>0.1775483532455873</v>
+        <v>0.08836777924846473</v>
       </c>
       <c r="K2">
-        <v>0.9994063224198442</v>
+        <v>0.9077420779218812</v>
       </c>
       <c r="L2">
-        <v>0.326208326667448</v>
+        <v>0.1480885365342957</v>
       </c>
       <c r="M2">
-        <v>0.3088152948878466</v>
+        <v>0.1831921978197393</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.101395631268787</v>
+        <v>0.7189302984836559</v>
       </c>
       <c r="C3">
-        <v>0.0653133134775743</v>
+        <v>0.1283672673339851</v>
       </c>
       <c r="D3">
-        <v>0.002203931866427311</v>
+        <v>0.006563240875754772</v>
       </c>
       <c r="E3">
-        <v>0.06170422803215736</v>
+        <v>0.01824222240816908</v>
       </c>
       <c r="F3">
-        <v>4.944654813428286</v>
+        <v>3.389357402522222</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
-        <v>3.255442672115777</v>
+        <v>2.27594825214247</v>
       </c>
       <c r="J3">
-        <v>0.1775156476803286</v>
+        <v>0.08792990367835074</v>
       </c>
       <c r="K3">
-        <v>0.9807796220937064</v>
+        <v>0.7991291568772283</v>
       </c>
       <c r="L3">
-        <v>0.3260158177419541</v>
+        <v>0.1394380547970826</v>
       </c>
       <c r="M3">
-        <v>0.3069278121838401</v>
+        <v>0.1654215684863516</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.094444579545865</v>
+        <v>0.6634727544465875</v>
       </c>
       <c r="C4">
-        <v>0.06222300632200017</v>
+        <v>0.1163795804509391</v>
       </c>
       <c r="D4">
-        <v>0.002190876950550091</v>
+        <v>0.006390934896527867</v>
       </c>
       <c r="E4">
-        <v>0.06185837856750354</v>
+        <v>0.01827601981508176</v>
       </c>
       <c r="F4">
-        <v>4.921493858767292</v>
+        <v>3.285835849696667</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
-        <v>3.240666928315861</v>
+        <v>2.215202059036244</v>
       </c>
       <c r="J4">
-        <v>0.1775099148167723</v>
+        <v>0.08769186207337576</v>
       </c>
       <c r="K4">
-        <v>0.9700475144178995</v>
+        <v>0.7337525362870565</v>
       </c>
       <c r="L4">
-        <v>0.3260330249506893</v>
+        <v>0.1343239176133082</v>
       </c>
       <c r="M4">
-        <v>0.3059494516714381</v>
+        <v>0.1547852671879575</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.09180370621101</v>
+        <v>0.6411500614171644</v>
       </c>
       <c r="C5">
-        <v>0.06097446241061277</v>
+        <v>0.1115377994752436</v>
       </c>
       <c r="D5">
-        <v>0.002186354025598192</v>
+        <v>0.006319504459968428</v>
       </c>
       <c r="E5">
-        <v>0.06192422509743567</v>
+        <v>0.01829283653093228</v>
       </c>
       <c r="F5">
-        <v>4.912359305783085</v>
+        <v>3.244405200552777</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
-        <v>3.2348126497252</v>
+        <v>2.190897561610853</v>
       </c>
       <c r="J5">
-        <v>0.1775111897703674</v>
+        <v>0.08760233971936771</v>
       </c>
       <c r="K5">
-        <v>0.9658514350862788</v>
+        <v>0.7074104654869871</v>
       </c>
       <c r="L5">
-        <v>0.3260741512716123</v>
+        <v>0.1322867640198382</v>
       </c>
       <c r="M5">
-        <v>0.3055962387205007</v>
+        <v>0.1505150016892678</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.091376779643184</v>
+        <v>0.6374594031510981</v>
       </c>
       <c r="C6">
-        <v>0.06076779190237858</v>
+        <v>0.1107362703737209</v>
       </c>
       <c r="D6">
-        <v>0.002185651140839795</v>
+        <v>0.006307568377780015</v>
       </c>
       <c r="E6">
-        <v>0.0619353420725206</v>
+        <v>0.01829581169334382</v>
       </c>
       <c r="F6">
-        <v>4.910860862385633</v>
+        <v>3.237569722068955</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
-        <v>3.233850631598116</v>
+        <v>2.186888069641654</v>
       </c>
       <c r="J6">
-        <v>0.1775116196712645</v>
+        <v>0.08758791896037899</v>
       </c>
       <c r="K6">
-        <v>0.9651653941052416</v>
+        <v>0.7030536164379555</v>
       </c>
       <c r="L6">
-        <v>0.3260830425985759</v>
+        <v>0.1319512529002083</v>
       </c>
       <c r="M6">
-        <v>0.3055403368529319</v>
+        <v>0.1498096592147213</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.09440818711272</v>
+        <v>0.6631706144948737</v>
       </c>
       <c r="C7">
-        <v>0.06220612445581253</v>
+        <v>0.1163141149330755</v>
       </c>
       <c r="D7">
-        <v>0.002190812725126889</v>
+        <v>0.006389976558645927</v>
       </c>
       <c r="E7">
-        <v>0.06185925432043327</v>
+        <v>0.0182762343358096</v>
       </c>
       <c r="F7">
-        <v>4.921369437341355</v>
+        <v>3.28527411477998</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
-        <v>3.240587299636744</v>
+        <v>2.214872500162699</v>
       </c>
       <c r="J7">
-        <v>0.1775099173856614</v>
+        <v>0.08769062479239054</v>
       </c>
       <c r="K7">
-        <v>0.9699902064082266</v>
+        <v>0.7333961043571264</v>
       </c>
       <c r="L7">
-        <v>0.3260334413809147</v>
+        <v>0.134296257409467</v>
       </c>
       <c r="M7">
-        <v>0.3059445038860638</v>
+        <v>0.1547274236928402</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.109467693689879</v>
+        <v>0.7791249435763348</v>
       </c>
       <c r="C8">
-        <v>0.06864799846454162</v>
+        <v>0.1413242821033407</v>
       </c>
       <c r="D8">
-        <v>0.00222058690343907</v>
+        <v>0.006743137463551818</v>
       </c>
       <c r="E8">
-        <v>0.06155006284918274</v>
+        <v>0.01821667306626784</v>
       </c>
       <c r="F8">
-        <v>4.970408120038016</v>
+        <v>3.502562202834255</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
-        <v>3.271780802485821</v>
+        <v>2.342401504756737</v>
       </c>
       <c r="J8">
-        <v>0.1775341001085238</v>
+        <v>0.08821023763278646</v>
       </c>
       <c r="K8">
-        <v>0.9928376259279048</v>
+        <v>0.8700009521689651</v>
       </c>
       <c r="L8">
-        <v>0.326113883363405</v>
+        <v>0.1450632098447855</v>
       </c>
       <c r="M8">
-        <v>0.308127057352781</v>
+        <v>0.177004687350891</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.14503288877799</v>
+        <v>1.017276325472267</v>
       </c>
       <c r="C9">
-        <v>0.08162646807340934</v>
+        <v>0.1922276015188373</v>
       </c>
       <c r="D9">
-        <v>0.002304129704372215</v>
+        <v>0.007402775919404192</v>
       </c>
       <c r="E9">
-        <v>0.06103862800943816</v>
+        <v>0.01819919355253674</v>
       </c>
       <c r="F9">
-        <v>5.076170379350856</v>
+        <v>3.956988919300727</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
-        <v>3.338233256549344</v>
+        <v>2.609362216248584</v>
       </c>
       <c r="J9">
-        <v>0.1776952742083253</v>
+        <v>0.08948673582960254</v>
       </c>
       <c r="K9">
-        <v>1.043232231780735</v>
+        <v>1.149795062491165</v>
       </c>
       <c r="L9">
-        <v>0.3273435713869475</v>
+        <v>0.1678758491306027</v>
       </c>
       <c r="M9">
-        <v>0.3138372194715835</v>
+        <v>0.223118737099437</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.174835432528567</v>
+        <v>1.200701629091299</v>
       </c>
       <c r="C10">
-        <v>0.09137883456013185</v>
+        <v>0.2312183016195917</v>
       </c>
       <c r="D10">
-        <v>0.002380874737957228</v>
+        <v>0.007872755070179593</v>
       </c>
       <c r="E10">
-        <v>0.06072018855940353</v>
+        <v>0.01825008217110113</v>
       </c>
       <c r="F10">
-        <v>5.159752352218817</v>
+        <v>4.31228065106373</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
-        <v>3.390296884204432</v>
+        <v>2.818258046324814</v>
       </c>
       <c r="J10">
-        <v>0.177882962879778</v>
+        <v>0.09060130169142155</v>
       </c>
       <c r="K10">
-        <v>1.083670504081368</v>
+        <v>1.364915393711101</v>
       </c>
       <c r="L10">
-        <v>0.3288977550276044</v>
+        <v>0.1858750615795017</v>
       </c>
       <c r="M10">
-        <v>0.3189020754153837</v>
+        <v>0.2588560993000506</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.189190207051553</v>
+        <v>1.286451455336703</v>
       </c>
       <c r="C11">
-        <v>0.09586397661198021</v>
+        <v>0.249416217682608</v>
       </c>
       <c r="D11">
-        <v>0.002419133039650134</v>
+        <v>0.008084816329299471</v>
       </c>
       <c r="E11">
-        <v>0.06058765482392836</v>
+        <v>0.01828789034258183</v>
       </c>
       <c r="F11">
-        <v>5.199059108563802</v>
+        <v>4.479589360625852</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
-        <v>3.414690671700512</v>
+        <v>2.916669933536554</v>
       </c>
       <c r="J11">
-        <v>0.1779833785011249</v>
+        <v>0.091151559626379</v>
       </c>
       <c r="K11">
-        <v>1.10280968935092</v>
+        <v>1.465422940002838</v>
       </c>
       <c r="L11">
-        <v>0.3297455607443283</v>
+        <v>0.194382584824929</v>
       </c>
       <c r="M11">
-        <v>0.3213946448100131</v>
+        <v>0.2756105783456704</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.194740505880702</v>
+        <v>1.319297933430192</v>
       </c>
       <c r="C12">
-        <v>0.09756948384833208</v>
+        <v>0.2563841894090046</v>
       </c>
       <c r="D12">
-        <v>0.002434102115588033</v>
+        <v>0.008165010204256973</v>
       </c>
       <c r="E12">
-        <v>0.06053923125741179</v>
+        <v>0.01830439307636489</v>
       </c>
       <c r="F12">
-        <v>5.214128627864312</v>
+        <v>4.543856640192871</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
-        <v>3.424030286818422</v>
+        <v>2.954478630812019</v>
       </c>
       <c r="J12">
-        <v>0.1780235633236806</v>
+        <v>0.09136658958428612</v>
       </c>
       <c r="K12">
-        <v>1.110164144121001</v>
+        <v>1.503915912320423</v>
       </c>
       <c r="L12">
-        <v>0.3300867968577492</v>
+        <v>0.1976547442523966</v>
       </c>
       <c r="M12">
-        <v>0.3223655774541641</v>
+        <v>0.2820351887979555</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.193540062554945</v>
+        <v>1.312206454350871</v>
       </c>
       <c r="C13">
-        <v>0.09720185624911437</v>
+        <v>0.2548799157311237</v>
       </c>
       <c r="D13">
-        <v>0.002430856839691131</v>
+        <v>0.008147741414664011</v>
       </c>
       <c r="E13">
-        <v>0.0605495818133992</v>
+        <v>0.01830074037356866</v>
       </c>
       <c r="F13">
-        <v>5.2108749113832</v>
+        <v>4.529973419830526</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
-        <v>3.422014285028993</v>
+        <v>2.946310790336867</v>
       </c>
       <c r="J13">
-        <v>0.1780148127930481</v>
+        <v>0.09131997537813064</v>
       </c>
       <c r="K13">
-        <v>1.108575479084294</v>
+        <v>1.495605619311249</v>
       </c>
       <c r="L13">
-        <v>0.3300124084666862</v>
+        <v>0.1969477002266089</v>
       </c>
       <c r="M13">
-        <v>0.3221552676104409</v>
+        <v>0.2806478285671048</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.189644540790425</v>
+        <v>1.289145980608509</v>
       </c>
       <c r="C14">
-        <v>0.09600414738289942</v>
+        <v>0.2499878730300509</v>
       </c>
       <c r="D14">
-        <v>0.002420354903154731</v>
+        <v>0.008091415237252875</v>
       </c>
       <c r="E14">
-        <v>0.06058363568085312</v>
+        <v>0.01828920375100651</v>
       </c>
       <c r="F14">
-        <v>5.200295180442936</v>
+        <v>4.48485783924329</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
-        <v>3.415456998001204</v>
+        <v>2.919769272253973</v>
       </c>
       <c r="J14">
-        <v>0.1779866412629048</v>
+        <v>0.09116911412903761</v>
       </c>
       <c r="K14">
-        <v>1.103412603501425</v>
+        <v>1.468580785532794</v>
       </c>
       <c r="L14">
-        <v>0.3297732301175671</v>
+        <v>0.1946507464507263</v>
       </c>
       <c r="M14">
-        <v>0.321473982232618</v>
+        <v>0.2761374786156168</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.187273320676866</v>
+        <v>1.275070941467021</v>
       </c>
       <c r="C15">
-        <v>0.09527144046924718</v>
+        <v>0.2470016912145638</v>
       </c>
       <c r="D15">
-        <v>0.002413984877323472</v>
+        <v>0.008056904131928277</v>
       </c>
       <c r="E15">
-        <v>0.06060472414620399</v>
+        <v>0.01828242433242089</v>
       </c>
       <c r="F15">
-        <v>5.19383887381116</v>
+        <v>4.457344832104866</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
-        <v>3.411453786569922</v>
+        <v>2.903584186693564</v>
       </c>
       <c r="J15">
-        <v>0.177969666560351</v>
+        <v>0.09107758831257584</v>
       </c>
       <c r="K15">
-        <v>1.100264107582859</v>
+        <v>1.452085314537015</v>
       </c>
       <c r="L15">
-        <v>0.3296293542119599</v>
+        <v>0.1932505222935177</v>
       </c>
       <c r="M15">
-        <v>0.3210601962729385</v>
+        <v>0.2733854520356047</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.173913342439391</v>
+        <v>1.195147703487976</v>
       </c>
       <c r="C16">
-        <v>0.09108670694729426</v>
+        <v>0.2300391752457358</v>
       </c>
       <c r="D16">
-        <v>0.002378441830147793</v>
+        <v>0.007858872999115363</v>
       </c>
       <c r="E16">
-        <v>0.0607290972629535</v>
+        <v>0.01824791272009918</v>
       </c>
       <c r="F16">
-        <v>5.157209430303652</v>
+        <v>4.301468824098464</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
-        <v>3.388716988366127</v>
+        <v>2.811899328134956</v>
       </c>
       <c r="J16">
-        <v>0.1778767028198551</v>
+        <v>0.09056624790627765</v>
       </c>
       <c r="K16">
-        <v>1.082434670575566</v>
+        <v>1.358404616352459</v>
       </c>
       <c r="L16">
-        <v>0.3288451773459968</v>
+        <v>0.1853258879956385</v>
       </c>
       <c r="M16">
-        <v>0.3187429688033276</v>
+        <v>0.2577718732988181</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.165921519225833</v>
+        <v>1.146737904168475</v>
       </c>
       <c r="C17">
-        <v>0.08853204357777145</v>
+        <v>0.219758421660174</v>
       </c>
       <c r="D17">
-        <v>0.002357494634466661</v>
+        <v>0.007737036629645644</v>
       </c>
       <c r="E17">
-        <v>0.06080854713337303</v>
+        <v>0.01823054781928768</v>
       </c>
       <c r="F17">
-        <v>5.135067642617457</v>
+        <v>4.207363757614445</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
-        <v>3.374950598697779</v>
+        <v>2.756558305267035</v>
       </c>
       <c r="J17">
-        <v>0.1778235216978317</v>
+        <v>0.09026393263219035</v>
       </c>
       <c r="K17">
-        <v>1.071687293696812</v>
+        <v>1.301648292531922</v>
       </c>
       <c r="L17">
-        <v>0.3284001320819172</v>
+        <v>0.1805493625791001</v>
       </c>
       <c r="M17">
-        <v>0.3173696706694074</v>
+        <v>0.2483266470516021</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.161399905893006</v>
+        <v>1.119108369273732</v>
       </c>
       <c r="C18">
-        <v>0.08706725220189071</v>
+        <v>0.213887888756318</v>
       </c>
       <c r="D18">
-        <v>0.002345761342585462</v>
+        <v>0.007666786776827195</v>
       </c>
       <c r="E18">
-        <v>0.06085540527226652</v>
+        <v>0.01822193455822596</v>
       </c>
       <c r="F18">
-        <v>5.122453204132142</v>
+        <v>4.153765967009804</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
-        <v>3.367099334348964</v>
+        <v>2.725042510349738</v>
       </c>
       <c r="J18">
-        <v>0.1777943486423048</v>
+        <v>0.09009408970905142</v>
       </c>
       <c r="K18">
-        <v>1.065575682862885</v>
+        <v>1.269249404084889</v>
       </c>
       <c r="L18">
-        <v>0.3281574098761482</v>
+        <v>0.1778318129833494</v>
       </c>
       <c r="M18">
-        <v>0.3165975358548252</v>
+        <v>0.2429402596170114</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.159881865651357</v>
+        <v>1.109789085995089</v>
       </c>
       <c r="C19">
-        <v>0.0865720840266988</v>
+        <v>0.2119072545311838</v>
       </c>
       <c r="D19">
-        <v>0.002341842741806488</v>
+        <v>0.007642967755378649</v>
       </c>
       <c r="E19">
-        <v>0.06087147023627892</v>
+        <v>0.01821925212119613</v>
       </c>
       <c r="F19">
-        <v>5.118202938131247</v>
+        <v>4.135706816904246</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
-        <v>3.364452499339166</v>
+        <v>2.714424279242124</v>
       </c>
       <c r="J19">
-        <v>0.1777847143030939</v>
+        <v>0.09003726502790244</v>
       </c>
       <c r="K19">
-        <v>1.063518420578418</v>
+        <v>1.258320417269402</v>
       </c>
       <c r="L19">
-        <v>0.3280775067788753</v>
+        <v>0.1769166797699171</v>
       </c>
       <c r="M19">
-        <v>0.3163391547339742</v>
+        <v>0.2411242196409979</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.166764494353231</v>
+        <v>1.151868712723825</v>
       </c>
       <c r="C20">
-        <v>0.08880351696635103</v>
+        <v>0.2208483348044581</v>
       </c>
       <c r="D20">
-        <v>0.002359691898762506</v>
+        <v>0.007750023250496341</v>
       </c>
       <c r="E20">
-        <v>0.0607999694946022</v>
+        <v>0.01823225354638858</v>
       </c>
       <c r="F20">
-        <v>5.137412156690772</v>
+        <v>4.217326008204623</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
-        <v>3.376409139839708</v>
+        <v>2.762416475035792</v>
       </c>
       <c r="J20">
-        <v>0.1778290364556732</v>
+        <v>0.09029569332874843</v>
       </c>
       <c r="K20">
-        <v>1.072824126505623</v>
+        <v>1.307664294708786</v>
       </c>
       <c r="L20">
-        <v>0.3284461363685836</v>
+        <v>0.1810547177752397</v>
       </c>
       <c r="M20">
-        <v>0.3175140239948497</v>
+        <v>0.2493272609710608</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.190785645304402</v>
+        <v>1.295908863280204</v>
       </c>
       <c r="C21">
-        <v>0.09635575074526059</v>
+        <v>0.2514226102152008</v>
       </c>
       <c r="D21">
-        <v>0.002423426507021986</v>
+        <v>0.008107961341327297</v>
       </c>
       <c r="E21">
-        <v>0.06057358542409208</v>
+        <v>0.01829253235407169</v>
       </c>
       <c r="F21">
-        <v>5.203397684530415</v>
+        <v>4.498083859617736</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
-        <v>3.417380256792768</v>
+        <v>2.92754997255372</v>
       </c>
       <c r="J21">
-        <v>0.1779948573321413</v>
+        <v>0.09121324127544739</v>
       </c>
       <c r="K21">
-        <v>1.104926165566752</v>
+        <v>1.476506442340281</v>
       </c>
       <c r="L21">
-        <v>0.329842935077032</v>
+        <v>0.195324006849809</v>
       </c>
       <c r="M21">
-        <v>0.3216733585956035</v>
+        <v>0.2774600328686319</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.207151905424865</v>
+        <v>1.392255635254429</v>
       </c>
       <c r="C22">
-        <v>0.1013328813222643</v>
+        <v>0.2718581304817462</v>
       </c>
       <c r="D22">
-        <v>0.002467887378497124</v>
+        <v>0.008341339162168282</v>
       </c>
       <c r="E22">
-        <v>0.06043590893844897</v>
+        <v>0.01834471047070618</v>
       </c>
       <c r="F22">
-        <v>5.247600868285474</v>
+        <v>4.686936259633626</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
-        <v>3.444753121512463</v>
+        <v>3.038664779751244</v>
       </c>
       <c r="J22">
-        <v>0.1781158175844979</v>
+        <v>0.09185196311918631</v>
       </c>
       <c r="K22">
-        <v>1.126529541851937</v>
+        <v>1.589406233404787</v>
       </c>
       <c r="L22">
-        <v>0.3308734838418417</v>
+        <v>0.2049468938662784</v>
       </c>
       <c r="M22">
-        <v>0.3245493689795111</v>
+        <v>0.2963176300412798</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.198355958633528</v>
+        <v>1.340616171832238</v>
       </c>
       <c r="C23">
-        <v>0.0986726891812566</v>
+        <v>0.2609060347103025</v>
       </c>
       <c r="D23">
-        <v>0.002443900875606531</v>
+        <v>0.008216779926918605</v>
       </c>
       <c r="E23">
-        <v>0.06050845172590513</v>
+        <v>0.01831566423780107</v>
       </c>
       <c r="F23">
-        <v>5.223910129757797</v>
+        <v>4.585618249751633</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
-        <v>3.430089135840888</v>
+        <v>2.979048949022797</v>
       </c>
       <c r="J23">
-        <v>0.1780501079316821</v>
+        <v>0.09150733486593765</v>
       </c>
       <c r="K23">
-        <v>1.114942445047348</v>
+        <v>1.528897363897073</v>
       </c>
       <c r="L23">
-        <v>0.3303127130680608</v>
+        <v>0.1997821576226215</v>
       </c>
       <c r="M23">
-        <v>0.3229999834913571</v>
+        <v>0.2862068128248154</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.166383157914197</v>
+        <v>1.14954844847955</v>
       </c>
       <c r="C24">
-        <v>0.08868077164837018</v>
+        <v>0.2203554612351581</v>
       </c>
       <c r="D24">
-        <v>0.002358697551549938</v>
+        <v>0.00774415264658046</v>
       </c>
       <c r="E24">
-        <v>0.06080384376486947</v>
+        <v>0.01823147812551706</v>
       </c>
       <c r="F24">
-        <v>5.13635184310715</v>
+        <v>4.212820510381022</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
-        <v>3.375749536462195</v>
+        <v>2.759767064642162</v>
       </c>
       <c r="J24">
-        <v>0.1778265388683771</v>
+        <v>0.09028132200952754</v>
       </c>
       <c r="K24">
-        <v>1.072309955066942</v>
+        <v>1.304943744242792</v>
       </c>
       <c r="L24">
-        <v>0.3284252968959862</v>
+        <v>0.1808261581412864</v>
       </c>
       <c r="M24">
-        <v>0.3174487076749841</v>
+        <v>0.248874747628431</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.134766212050437</v>
+        <v>0.9515122941807022</v>
       </c>
       <c r="C25">
-        <v>0.07807777416979889</v>
+        <v>0.1782131039201147</v>
       </c>
       <c r="D25">
-        <v>0.002278833049633278</v>
+        <v>0.007227335874576468</v>
       </c>
       <c r="E25">
-        <v>0.0611668817791795</v>
+        <v>0.01819298263799052</v>
       </c>
       <c r="F25">
-        <v>5.046528571265952</v>
+        <v>3.830614423563276</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
-        <v>3.319688466478851</v>
+        <v>2.535093088281812</v>
       </c>
       <c r="J25">
-        <v>0.1776395019327595</v>
+        <v>0.08911190030470451</v>
       </c>
       <c r="K25">
-        <v>1.029000119570185</v>
+        <v>1.072603632933152</v>
       </c>
       <c r="L25">
-        <v>0.3268964371138097</v>
+        <v>0.1615026614872832</v>
       </c>
       <c r="M25">
-        <v>0.3121395989906546</v>
+        <v>0.2103467777554968</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_14/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_14/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8112067867963901</v>
+        <v>3.411983033916385</v>
       </c>
       <c r="C2">
-        <v>0.1482109611410038</v>
+        <v>0.6326369116916339</v>
       </c>
       <c r="D2">
-        <v>0.006836423752860199</v>
+        <v>0.06061160356193795</v>
       </c>
       <c r="E2">
-        <v>0.01820715066130196</v>
+        <v>0.06128933610276022</v>
       </c>
       <c r="F2">
-        <v>3.563211219976324</v>
+        <v>0.4796043262570819</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0267246236506935</v>
+        <v>1.10683907261766E-06</v>
       </c>
       <c r="I2">
-        <v>2.378013083689623</v>
+        <v>0.0004432979951149996</v>
       </c>
       <c r="J2">
-        <v>0.08836777924846473</v>
+        <v>0.02672462365074526</v>
       </c>
       <c r="K2">
-        <v>0.9077420779218812</v>
+        <v>0.2667996366029186</v>
       </c>
       <c r="L2">
-        <v>0.1480885365342957</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.1831921978197393</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.3617052946616326</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>1.37855243845047</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7189302984836559</v>
+        <v>2.973354271038659</v>
       </c>
       <c r="C3">
-        <v>0.1283672673339851</v>
+        <v>0.5683706109514901</v>
       </c>
       <c r="D3">
-        <v>0.006563240875754772</v>
+        <v>0.05450095801143107</v>
       </c>
       <c r="E3">
-        <v>0.01824222240816908</v>
+        <v>0.05858629753463962</v>
       </c>
       <c r="F3">
-        <v>3.389357402522222</v>
+        <v>0.4495226959084135</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
+        <v>0.0002164657336951592</v>
+      </c>
+      <c r="I3">
+        <v>0.0006147144031407592</v>
+      </c>
+      <c r="J3">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I3">
-        <v>2.27594825214247</v>
-      </c>
-      <c r="J3">
-        <v>0.08792990367835074</v>
-      </c>
       <c r="K3">
-        <v>0.7991291568772283</v>
+        <v>0.2734508374584124</v>
       </c>
       <c r="L3">
-        <v>0.1394380547970826</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.1654215684863516</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.3181875561011651</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>1.324159946980814</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6634727544465875</v>
+        <v>2.703627017216093</v>
       </c>
       <c r="C4">
-        <v>0.1163795804509391</v>
+        <v>0.5290927830542387</v>
       </c>
       <c r="D4">
-        <v>0.006390934896527867</v>
+        <v>0.05075822262083562</v>
       </c>
       <c r="E4">
-        <v>0.01827601981508176</v>
+        <v>0.05689557539153167</v>
       </c>
       <c r="F4">
-        <v>3.285835849696667</v>
+        <v>0.4316524457803439</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
+        <v>0.0005471836505525074</v>
+      </c>
+      <c r="I4">
+        <v>0.000957420514521079</v>
+      </c>
+      <c r="J4">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I4">
-        <v>2.215202059036244</v>
-      </c>
-      <c r="J4">
-        <v>0.08769186207337576</v>
-      </c>
       <c r="K4">
-        <v>0.7337525362870565</v>
+        <v>0.277912357945624</v>
       </c>
       <c r="L4">
-        <v>0.1343239176133082</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.1547852671879575</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.291509635676988</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>1.292614998815949</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6411500614171644</v>
+        <v>2.59357516067098</v>
       </c>
       <c r="C5">
-        <v>0.1115377994752436</v>
+        <v>0.513921546729847</v>
       </c>
       <c r="D5">
-        <v>0.006319504459968428</v>
+        <v>0.04930477508070652</v>
       </c>
       <c r="E5">
-        <v>0.01829283653093228</v>
+        <v>0.05615612251491076</v>
       </c>
       <c r="F5">
-        <v>3.244405200552777</v>
+        <v>0.4239228261881465</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
+        <v>0.0007301644320999445</v>
+      </c>
+      <c r="I5">
+        <v>0.001223237217745421</v>
+      </c>
+      <c r="J5">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I5">
-        <v>2.190897561610853</v>
-      </c>
-      <c r="J5">
-        <v>0.08760233971936771</v>
-      </c>
       <c r="K5">
-        <v>0.7074104654869871</v>
+        <v>0.2794373655626643</v>
       </c>
       <c r="L5">
-        <v>0.1322867640198382</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.1505150016892678</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.2807420173721766</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>1.278265637635116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6374594031510981</v>
+        <v>2.57527247693065</v>
       </c>
       <c r="C6">
-        <v>0.1107362703737209</v>
+        <v>0.5123803333896717</v>
       </c>
       <c r="D6">
-        <v>0.006307568377780015</v>
+        <v>0.04914925752660793</v>
       </c>
       <c r="E6">
-        <v>0.01829581169334382</v>
+        <v>0.05598130837801474</v>
       </c>
       <c r="F6">
-        <v>3.237569722068955</v>
+        <v>0.4219280178917515</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
+        <v>0.0007645828190815385</v>
+      </c>
+      <c r="I6">
+        <v>0.001363320153338954</v>
+      </c>
+      <c r="J6">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I6">
-        <v>2.186888069641654</v>
-      </c>
-      <c r="J6">
-        <v>0.08758791896037899</v>
-      </c>
       <c r="K6">
-        <v>0.7030536164379555</v>
+        <v>0.2792275684983352</v>
       </c>
       <c r="L6">
-        <v>0.1319512529002083</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.1498096592147213</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.279072732490647</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>1.273546573381921</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6631706144948737</v>
+        <v>2.702083834328562</v>
       </c>
       <c r="C7">
-        <v>0.1163141149330755</v>
+        <v>0.531561709959675</v>
       </c>
       <c r="D7">
-        <v>0.006389976558645927</v>
+        <v>0.05097361188965976</v>
       </c>
       <c r="E7">
-        <v>0.0182762343358096</v>
+        <v>0.05674519640144915</v>
       </c>
       <c r="F7">
-        <v>3.28527411477998</v>
+        <v>0.4295816046062271</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
+        <v>0.0005522597474707513</v>
+      </c>
+      <c r="I7">
+        <v>0.001197760087030986</v>
+      </c>
+      <c r="J7">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I7">
-        <v>2.214872500162699</v>
-      </c>
-      <c r="J7">
-        <v>0.08769062479239054</v>
-      </c>
       <c r="K7">
-        <v>0.7333961043571264</v>
+        <v>0.2766558053847863</v>
       </c>
       <c r="L7">
-        <v>0.134296257409467</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.1547274236928402</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.2916885253206658</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>1.285968988356871</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7791249435763348</v>
+        <v>3.26073048106673</v>
       </c>
       <c r="C8">
-        <v>0.1413242821033407</v>
+        <v>0.6140188589409945</v>
       </c>
       <c r="D8">
-        <v>0.006743137463551818</v>
+        <v>0.05881768901350881</v>
       </c>
       <c r="E8">
-        <v>0.01821667306626784</v>
+        <v>0.06017909516242703</v>
       </c>
       <c r="F8">
-        <v>3.502562202834255</v>
+        <v>0.4665001825430224</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
+        <v>3.335714574670412E-05</v>
+      </c>
+      <c r="I8">
+        <v>0.0007323558520688778</v>
+      </c>
+      <c r="J8">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I8">
-        <v>2.342401504756737</v>
-      </c>
-      <c r="J8">
-        <v>0.08821023763278646</v>
-      </c>
       <c r="K8">
-        <v>0.8700009521689651</v>
+        <v>0.2673400717183547</v>
       </c>
       <c r="L8">
-        <v>0.1450632098447855</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.177004687350891</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.3471228392252641</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>1.350877239509259</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.017276325472267</v>
+        <v>4.353974098560116</v>
       </c>
       <c r="C9">
-        <v>0.1922276015188373</v>
+        <v>0.7726077860036469</v>
       </c>
       <c r="D9">
-        <v>0.007402775919404192</v>
+        <v>0.0738677305171791</v>
       </c>
       <c r="E9">
-        <v>0.01819919355253674</v>
+        <v>0.06693755518369038</v>
       </c>
       <c r="F9">
-        <v>3.956988919300727</v>
+        <v>0.5476358953255982</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
+        <v>0.0007193369132384442</v>
+      </c>
+      <c r="I9">
+        <v>0.001508281465318007</v>
+      </c>
+      <c r="J9">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I9">
-        <v>2.609362216248584</v>
-      </c>
-      <c r="J9">
-        <v>0.08948673582960254</v>
-      </c>
       <c r="K9">
-        <v>1.149795062491165</v>
+        <v>0.2545094588255523</v>
       </c>
       <c r="L9">
-        <v>0.1678758491306027</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.223118737099437</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.455738646224745</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>1.50567803851655</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.200701629091299</v>
+        <v>5.156524444729428</v>
       </c>
       <c r="C10">
-        <v>0.2312183016195917</v>
+        <v>0.9018768724700124</v>
       </c>
       <c r="D10">
-        <v>0.007872755070179593</v>
+        <v>0.08637971925806198</v>
       </c>
       <c r="E10">
-        <v>0.01825008217110113</v>
+        <v>0.06936030754740585</v>
       </c>
       <c r="F10">
-        <v>4.31228065106373</v>
+        <v>0.6005109786752172</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
+        <v>0.002510055914039633</v>
+      </c>
+      <c r="I10">
+        <v>0.003622222124023189</v>
+      </c>
+      <c r="J10">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I10">
-        <v>2.818258046324814</v>
-      </c>
-      <c r="J10">
-        <v>0.09060130169142155</v>
-      </c>
       <c r="K10">
-        <v>1.364915393711101</v>
+        <v>0.2412476238252452</v>
       </c>
       <c r="L10">
-        <v>0.1858750615795017</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.2588560993000506</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.5160141088122145</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>1.596711262869519</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.286451455336703</v>
+        <v>5.517436399575558</v>
       </c>
       <c r="C11">
-        <v>0.249416217682608</v>
+        <v>1.057264600569567</v>
       </c>
       <c r="D11">
-        <v>0.008084816329299471</v>
+        <v>0.1041309822353043</v>
       </c>
       <c r="E11">
-        <v>0.01828789034258183</v>
+        <v>0.0575602050111228</v>
       </c>
       <c r="F11">
-        <v>4.479589360625852</v>
+        <v>0.5409143894001787</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
+        <v>0.02111079748982192</v>
+      </c>
+      <c r="I11">
+        <v>0.004901108189766745</v>
+      </c>
+      <c r="J11">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I11">
-        <v>2.916669933536554</v>
-      </c>
-      <c r="J11">
-        <v>0.091151559626379</v>
-      </c>
       <c r="K11">
-        <v>1.465422940002838</v>
+        <v>0.1916447947783944</v>
       </c>
       <c r="L11">
-        <v>0.194382584824929</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.2756105783456704</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.3819774984061723</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>1.370596141098559</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.319297933430192</v>
+        <v>5.652681138263631</v>
       </c>
       <c r="C12">
-        <v>0.2563841894090046</v>
+        <v>1.164059545298528</v>
       </c>
       <c r="D12">
-        <v>0.008165010204256973</v>
+        <v>0.1171446311973625</v>
       </c>
       <c r="E12">
-        <v>0.01830439307636489</v>
+        <v>0.05778146955634433</v>
       </c>
       <c r="F12">
-        <v>4.543856640192871</v>
+        <v>0.4844052663321889</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
+        <v>0.05960950362869966</v>
+      </c>
+      <c r="I12">
+        <v>0.005091618392204289</v>
+      </c>
+      <c r="J12">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I12">
-        <v>2.954478630812019</v>
-      </c>
-      <c r="J12">
-        <v>0.09136658958428612</v>
-      </c>
       <c r="K12">
-        <v>1.503915912320423</v>
+        <v>0.1601944360667016</v>
       </c>
       <c r="L12">
-        <v>0.1976547442523966</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0.2820351887979555</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.2740079918832095</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>1.181564579031829</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.312206454350871</v>
+        <v>5.620565744839951</v>
       </c>
       <c r="C13">
-        <v>0.2548799157311237</v>
+        <v>1.242694802820154</v>
       </c>
       <c r="D13">
-        <v>0.008147741414664011</v>
+        <v>0.1274909500786947</v>
       </c>
       <c r="E13">
-        <v>0.01830074037356866</v>
+        <v>0.06678474432542991</v>
       </c>
       <c r="F13">
-        <v>4.529973419830526</v>
+        <v>0.423764150902457</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
+        <v>0.1149848883197535</v>
+      </c>
+      <c r="I13">
+        <v>0.004736672427162247</v>
+      </c>
+      <c r="J13">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I13">
-        <v>2.946310790336867</v>
-      </c>
-      <c r="J13">
-        <v>0.09131997537813064</v>
-      </c>
       <c r="K13">
-        <v>1.495605619311249</v>
+        <v>0.1385866651709851</v>
       </c>
       <c r="L13">
-        <v>0.1969477002266089</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0.2806478285671048</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.1809009149587837</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0.9994390535223658</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.289145980608509</v>
+        <v>5.522235954711903</v>
       </c>
       <c r="C14">
-        <v>0.2499878730300509</v>
+        <v>1.286244637146638</v>
       </c>
       <c r="D14">
-        <v>0.008091415237252875</v>
+        <v>0.1336611540915698</v>
       </c>
       <c r="E14">
-        <v>0.01828920375100651</v>
+        <v>0.07831588390257593</v>
       </c>
       <c r="F14">
-        <v>4.48485783924329</v>
+        <v>0.3795973741800651</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
+        <v>0.1640066687760395</v>
+      </c>
+      <c r="I14">
+        <v>0.004339557555972817</v>
+      </c>
+      <c r="J14">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I14">
-        <v>2.919769272253973</v>
-      </c>
-      <c r="J14">
-        <v>0.09116911412903761</v>
-      </c>
       <c r="K14">
-        <v>1.468580785532794</v>
+        <v>0.1285147127364095</v>
       </c>
       <c r="L14">
-        <v>0.1946507464507263</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0.2761374786156168</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.1255586462666187</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0.8761318851119313</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.275070941467021</v>
+        <v>5.462533121620481</v>
       </c>
       <c r="C15">
-        <v>0.2470016912145638</v>
+        <v>1.291091480692785</v>
       </c>
       <c r="D15">
-        <v>0.008056904131928277</v>
+        <v>0.1345597345858351</v>
       </c>
       <c r="E15">
-        <v>0.01828242433242089</v>
+        <v>0.08163265202915859</v>
       </c>
       <c r="F15">
-        <v>4.457344832104866</v>
+        <v>0.3671810515384095</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
+        <v>0.1763680758792248</v>
+      </c>
+      <c r="I15">
+        <v>0.004238678385936723</v>
+      </c>
+      <c r="J15">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I15">
-        <v>2.903584186693564</v>
-      </c>
-      <c r="J15">
-        <v>0.09107758831257584</v>
-      </c>
       <c r="K15">
-        <v>1.452085314537015</v>
+        <v>0.1272331114033225</v>
       </c>
       <c r="L15">
-        <v>0.1932505222935177</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0.2733854520356047</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.1130539661083887</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0.8445490886305009</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.195147703487976</v>
+        <v>5.122331040164681</v>
       </c>
       <c r="C16">
-        <v>0.2300391752457358</v>
+        <v>1.217916485650221</v>
       </c>
       <c r="D16">
-        <v>0.007858872999115363</v>
+        <v>0.1268146031124218</v>
       </c>
       <c r="E16">
-        <v>0.01824791272009918</v>
+        <v>0.07836478741601915</v>
       </c>
       <c r="F16">
-        <v>4.301468824098464</v>
+        <v>0.3558451045737385</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
+        <v>0.1628866631753283</v>
+      </c>
+      <c r="I16">
+        <v>0.003388236716843629</v>
+      </c>
+      <c r="J16">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I16">
-        <v>2.811899328134956</v>
-      </c>
-      <c r="J16">
-        <v>0.09056624790627765</v>
-      </c>
       <c r="K16">
-        <v>1.358404616352459</v>
+        <v>0.1360683389983892</v>
       </c>
       <c r="L16">
-        <v>0.1853258879956385</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.2577718732988181</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.1091497290714116</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0.8390354361322352</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.146737904168475</v>
+        <v>4.914338782565892</v>
       </c>
       <c r="C17">
-        <v>0.219758421660174</v>
+        <v>1.138853353191251</v>
       </c>
       <c r="D17">
-        <v>0.007737036629645644</v>
+        <v>0.1176030918862949</v>
       </c>
       <c r="E17">
-        <v>0.01823054781928768</v>
+        <v>0.06887664306713326</v>
       </c>
       <c r="F17">
-        <v>4.207363757614445</v>
+        <v>0.3703809343296243</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
+        <v>0.124733578674622</v>
+      </c>
+      <c r="I17">
+        <v>0.003008349178318603</v>
+      </c>
+      <c r="J17">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I17">
-        <v>2.756558305267035</v>
-      </c>
-      <c r="J17">
-        <v>0.09026393263219035</v>
-      </c>
       <c r="K17">
-        <v>1.301648292531922</v>
+        <v>0.1477930964713341</v>
       </c>
       <c r="L17">
-        <v>0.1805493625791001</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0.2483266470516021</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.1333929146937933</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0.8991889768111179</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.119108369273732</v>
+        <v>4.795882369167259</v>
       </c>
       <c r="C18">
-        <v>0.213887888756318</v>
+        <v>1.045810999613536</v>
       </c>
       <c r="D18">
-        <v>0.007666786776827195</v>
+        <v>0.106256968687191</v>
       </c>
       <c r="E18">
-        <v>0.01822193455822596</v>
+        <v>0.05790106521653549</v>
       </c>
       <c r="F18">
-        <v>4.153765967009804</v>
+        <v>0.4112633726201764</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
+        <v>0.0718386809730589</v>
+      </c>
+      <c r="I18">
+        <v>0.002648545655335788</v>
+      </c>
+      <c r="J18">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I18">
-        <v>2.725042510349738</v>
-      </c>
-      <c r="J18">
-        <v>0.09009408970905142</v>
-      </c>
       <c r="K18">
-        <v>1.269249404084889</v>
+        <v>0.1666546471221952</v>
       </c>
       <c r="L18">
-        <v>0.1778318129833494</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.2429402596170114</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.1938701766637649</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>1.032659661912646</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.109789085995089</v>
+        <v>4.757610710289896</v>
       </c>
       <c r="C19">
-        <v>0.2119072545311838</v>
+        <v>0.9586555137152857</v>
       </c>
       <c r="D19">
-        <v>0.007642967755378649</v>
+        <v>0.09519328856803355</v>
       </c>
       <c r="E19">
-        <v>0.01821925212119613</v>
+        <v>0.05399458221172948</v>
       </c>
       <c r="F19">
-        <v>4.135706816904246</v>
+        <v>0.4694820506651212</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
+        <v>0.02684460300503844</v>
+      </c>
+      <c r="I19">
+        <v>0.002832224450364684</v>
+      </c>
+      <c r="J19">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I19">
-        <v>2.714424279242124</v>
-      </c>
-      <c r="J19">
-        <v>0.09003726502790244</v>
-      </c>
       <c r="K19">
-        <v>1.258320417269402</v>
+        <v>0.1930294048768975</v>
       </c>
       <c r="L19">
-        <v>0.1769166797699171</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0.2411242196409979</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.2940548999975618</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>1.216481525607833</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.151868712723825</v>
+        <v>4.945482826811372</v>
       </c>
       <c r="C20">
-        <v>0.2208483348044581</v>
+        <v>0.8769581678395184</v>
       </c>
       <c r="D20">
-        <v>0.007750023250496341</v>
+        <v>0.08390847717872418</v>
       </c>
       <c r="E20">
-        <v>0.01823225354638858</v>
+        <v>0.06821338005659427</v>
       </c>
       <c r="F20">
-        <v>4.217326008204623</v>
+        <v>0.5798536323709342</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
+        <v>0.001920324272860707</v>
+      </c>
+      <c r="I20">
+        <v>0.003674149680811922</v>
+      </c>
+      <c r="J20">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I20">
-        <v>2.762416475035792</v>
-      </c>
-      <c r="J20">
-        <v>0.09029569332874843</v>
-      </c>
       <c r="K20">
-        <v>1.307664294708786</v>
+        <v>0.2405670319456625</v>
       </c>
       <c r="L20">
-        <v>0.1810547177752397</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0.2493272609710608</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.5003426871560066</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>1.550843362893147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.295908863280204</v>
+        <v>5.562452026465962</v>
       </c>
       <c r="C21">
-        <v>0.2514226102152008</v>
+        <v>0.9597122437051837</v>
       </c>
       <c r="D21">
-        <v>0.008107961341327297</v>
+        <v>0.09146791268612731</v>
       </c>
       <c r="E21">
-        <v>0.01829253235407169</v>
+        <v>0.07380153600986361</v>
       </c>
       <c r="F21">
-        <v>4.498083859617736</v>
+        <v>0.6380282765728964</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
+        <v>0.003655804508189919</v>
+      </c>
+      <c r="I21">
+        <v>0.005737690000326978</v>
+      </c>
+      <c r="J21">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I21">
-        <v>2.92754997255372</v>
-      </c>
-      <c r="J21">
-        <v>0.09121324127544739</v>
-      </c>
       <c r="K21">
-        <v>1.476506442340281</v>
+        <v>0.2404028187456326</v>
       </c>
       <c r="L21">
-        <v>0.195324006849809</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0.2774600328686319</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.5779095690182174</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1.677459701553914</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.392255635254429</v>
+        <v>5.965988221284306</v>
       </c>
       <c r="C22">
-        <v>0.2718581304817462</v>
+        <v>1.015611816818677</v>
       </c>
       <c r="D22">
-        <v>0.008341339162168282</v>
+        <v>0.09674756204515234</v>
       </c>
       <c r="E22">
-        <v>0.01834471047070618</v>
+        <v>0.07642047037076871</v>
       </c>
       <c r="F22">
-        <v>4.686936259633626</v>
+        <v>0.6746301650934754</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
+        <v>0.005102024831678653</v>
+      </c>
+      <c r="I22">
+        <v>0.007126579413760936</v>
+      </c>
+      <c r="J22">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I22">
-        <v>3.038664779751244</v>
-      </c>
-      <c r="J22">
-        <v>0.09185196311918631</v>
-      </c>
       <c r="K22">
-        <v>1.589406233404787</v>
+        <v>0.2396117918660643</v>
       </c>
       <c r="L22">
-        <v>0.2049468938662784</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0.2963176300412798</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.6180434549320921</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>1.755403731097545</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.340616171832238</v>
+        <v>5.750668436379669</v>
       </c>
       <c r="C23">
-        <v>0.2609060347103025</v>
+        <v>0.9824164519711474</v>
       </c>
       <c r="D23">
-        <v>0.008216779926918605</v>
+        <v>0.0936342154858778</v>
       </c>
       <c r="E23">
-        <v>0.01831566423780107</v>
+        <v>0.07518382670318324</v>
       </c>
       <c r="F23">
-        <v>4.585618249751633</v>
+        <v>0.6573149652525814</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
+        <v>0.004309408449763297</v>
+      </c>
+      <c r="I23">
+        <v>0.006081373568343373</v>
+      </c>
+      <c r="J23">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I23">
-        <v>2.979048949022797</v>
-      </c>
-      <c r="J23">
-        <v>0.09150733486593765</v>
-      </c>
       <c r="K23">
-        <v>1.528897363897073</v>
+        <v>0.2414174702954561</v>
       </c>
       <c r="L23">
-        <v>0.1997821576226215</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0.2862068128248154</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.5962080707564184</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>1.721049337974279</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.14954844847955</v>
+        <v>4.935954773371463</v>
       </c>
       <c r="C24">
-        <v>0.2203554612351581</v>
+        <v>0.8627175742533097</v>
       </c>
       <c r="D24">
-        <v>0.00774415264658046</v>
+        <v>0.08235346854380055</v>
       </c>
       <c r="E24">
-        <v>0.01823147812551706</v>
+        <v>0.07023759441545252</v>
       </c>
       <c r="F24">
-        <v>4.212820510381022</v>
+        <v>0.590052934787785</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
+        <v>0.001870434026544854</v>
+      </c>
+      <c r="I24">
+        <v>0.003226987723230046</v>
+      </c>
+      <c r="J24">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I24">
-        <v>2.759767064642162</v>
-      </c>
-      <c r="J24">
-        <v>0.09028132200952754</v>
-      </c>
       <c r="K24">
-        <v>1.304943744242792</v>
+        <v>0.247051442262709</v>
       </c>
       <c r="L24">
-        <v>0.1808261581412864</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0.248874747628431</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.5144927265621391</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>1.584953825414317</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9515122941807022</v>
+        <v>4.058207947816015</v>
       </c>
       <c r="C25">
-        <v>0.1782131039201147</v>
+        <v>0.7344530748979139</v>
       </c>
       <c r="D25">
-        <v>0.007227335874576468</v>
+        <v>0.07022145740532437</v>
       </c>
       <c r="E25">
-        <v>0.01819298263799052</v>
+        <v>0.06488083003093692</v>
       </c>
       <c r="F25">
-        <v>3.830614423563276</v>
+        <v>0.5215114464227995</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
+        <v>0.0003292717369129949</v>
+      </c>
+      <c r="I25">
+        <v>0.001453252363553759</v>
+      </c>
+      <c r="J25">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I25">
-        <v>2.535093088281812</v>
-      </c>
-      <c r="J25">
-        <v>0.08911190030470451</v>
-      </c>
       <c r="K25">
-        <v>1.072603632933152</v>
+        <v>0.2553682618371305</v>
       </c>
       <c r="L25">
-        <v>0.1615026614872832</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.2103467777554968</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.426877172400097</v>
       </c>
       <c r="O25">
         <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>1.45030901572386</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_14/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_14/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.411983033916385</v>
+        <v>3.418321007987856</v>
       </c>
       <c r="C2">
-        <v>0.6326369116916339</v>
+        <v>0.6604879591319843</v>
       </c>
       <c r="D2">
-        <v>0.06061160356193795</v>
+        <v>0.06312021006810653</v>
       </c>
       <c r="E2">
-        <v>0.06128933610276022</v>
+        <v>0.05946618887750965</v>
       </c>
       <c r="F2">
-        <v>0.4796043262570819</v>
+        <v>0.4478552086839258</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.10683907261766E-06</v>
+        <v>1.458441774881969E-05</v>
       </c>
       <c r="I2">
-        <v>0.0004432979951149996</v>
+        <v>0.0005933527593366961</v>
       </c>
       <c r="J2">
-        <v>0.02672462365074526</v>
+        <v>0.07607150459155762</v>
       </c>
       <c r="K2">
-        <v>0.2667996366029186</v>
+        <v>0.2400502598232528</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1339022188310413</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.05601244552550355</v>
       </c>
       <c r="N2">
-        <v>0.3617052946616326</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.3694977529780061</v>
       </c>
       <c r="Q2">
-        <v>1.37855243845047</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1.268921223598568</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.973354271038659</v>
+        <v>2.979911674028529</v>
       </c>
       <c r="C3">
-        <v>0.5683706109514901</v>
+        <v>0.5859785249002414</v>
       </c>
       <c r="D3">
-        <v>0.05450095801143107</v>
+        <v>0.05611411089613938</v>
       </c>
       <c r="E3">
-        <v>0.05858629753463962</v>
+        <v>0.05716915444777104</v>
       </c>
       <c r="F3">
-        <v>0.4495226959084135</v>
+        <v>0.4225749884428822</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0002164657336951592</v>
+        <v>8.082099120410025E-05</v>
       </c>
       <c r="I3">
-        <v>0.0006147144031407592</v>
+        <v>0.000532503478119839</v>
       </c>
       <c r="J3">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459142331</v>
       </c>
       <c r="K3">
-        <v>0.2734508374584124</v>
+        <v>0.2485044023075851</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1399227409711585</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.05736774955665336</v>
       </c>
       <c r="N3">
-        <v>0.3181875561011651</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.3252307740573031</v>
       </c>
       <c r="Q3">
-        <v>1.324159946980814</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1.229148244260514</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.703627017216093</v>
+        <v>2.71020057768493</v>
       </c>
       <c r="C4">
-        <v>0.5290927830542387</v>
+        <v>0.5405920505961888</v>
       </c>
       <c r="D4">
-        <v>0.05075822262083562</v>
+        <v>0.0518375753390572</v>
       </c>
       <c r="E4">
-        <v>0.05689557539153167</v>
+        <v>0.05572541181796531</v>
       </c>
       <c r="F4">
-        <v>0.4316524457803439</v>
+        <v>0.4075193826895358</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0005471836505525074</v>
+        <v>0.0002934698962976379</v>
       </c>
       <c r="I4">
-        <v>0.000957420514521079</v>
+        <v>0.0006960869712937523</v>
       </c>
       <c r="J4">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153714</v>
       </c>
       <c r="K4">
-        <v>0.277912357945624</v>
+        <v>0.253997860148047</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1437842332281214</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.05877660339195767</v>
       </c>
       <c r="N4">
-        <v>0.291509635676988</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.2981031997774437</v>
       </c>
       <c r="Q4">
-        <v>1.292614998815949</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1.206157875268573</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.59357516067098</v>
+        <v>2.60012716188271</v>
       </c>
       <c r="C5">
-        <v>0.513921546729847</v>
+        <v>0.5229738791430236</v>
       </c>
       <c r="D5">
-        <v>0.04930477508070652</v>
+        <v>0.05017008500588105</v>
       </c>
       <c r="E5">
-        <v>0.05615612251491076</v>
+        <v>0.0550894750842259</v>
       </c>
       <c r="F5">
-        <v>0.4239228261881465</v>
+        <v>0.4009437232588269</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0007301644320999445</v>
+        <v>0.0004217688701346756</v>
       </c>
       <c r="I5">
-        <v>0.001223237217745421</v>
+        <v>0.0008921726241153394</v>
       </c>
       <c r="J5">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153728</v>
       </c>
       <c r="K5">
-        <v>0.2794373655626643</v>
+        <v>0.2559686822315328</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1452162933318348</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.05941895783929674</v>
       </c>
       <c r="N5">
-        <v>0.2807420173721766</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.2871514108861675</v>
       </c>
       <c r="Q5">
-        <v>1.278265637635116</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1.195336404419052</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.57527247693065</v>
+        <v>2.581817490660569</v>
       </c>
       <c r="C6">
-        <v>0.5123803333896717</v>
+        <v>0.5210260285255117</v>
       </c>
       <c r="D6">
-        <v>0.04914925752660793</v>
+        <v>0.04997865417573166</v>
       </c>
       <c r="E6">
-        <v>0.05598130837801474</v>
+        <v>0.05493599464452714</v>
       </c>
       <c r="F6">
-        <v>0.4219280178917515</v>
+        <v>0.3991870862145106</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0007645828190815385</v>
+        <v>0.0004464309231261288</v>
       </c>
       <c r="I6">
-        <v>0.001363320153338954</v>
+        <v>0.001036263021904738</v>
       </c>
       <c r="J6">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459142324</v>
       </c>
       <c r="K6">
-        <v>0.2792275684983352</v>
+        <v>0.2558854006272604</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.145234508366995</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.05944291880775321</v>
       </c>
       <c r="N6">
-        <v>0.279072732490647</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.2854469397294395</v>
       </c>
       <c r="Q6">
-        <v>1.273546573381921</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>1.191374768923382</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.702083834328562</v>
+        <v>2.70865248680775</v>
       </c>
       <c r="C7">
-        <v>0.531561709959675</v>
+        <v>0.5430255699805002</v>
       </c>
       <c r="D7">
-        <v>0.05097361188965976</v>
+        <v>0.05204886503836548</v>
       </c>
       <c r="E7">
-        <v>0.05674519640144915</v>
+        <v>0.05558832292640492</v>
       </c>
       <c r="F7">
-        <v>0.4295816046062271</v>
+        <v>0.4056003198673395</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0005522597474707513</v>
+        <v>0.0002970602481714435</v>
       </c>
       <c r="I7">
-        <v>0.001197760087030986</v>
+        <v>0.0009770684063301616</v>
       </c>
       <c r="J7">
-        <v>0.0267246236506935</v>
+        <v>0.0759357156874878</v>
       </c>
       <c r="K7">
-        <v>0.2766558053847863</v>
+        <v>0.2528999278704358</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1432192635577145</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.05851963572109309</v>
       </c>
       <c r="N7">
-        <v>0.2916885253206658</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.2982665918524958</v>
       </c>
       <c r="Q7">
-        <v>1.285968988356871</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1.200060526808258</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.26073048106673</v>
+        <v>3.267166492138529</v>
       </c>
       <c r="C8">
-        <v>0.6140188589409945</v>
+        <v>0.6383211759756477</v>
       </c>
       <c r="D8">
-        <v>0.05881768901350881</v>
+        <v>0.0610144801479322</v>
       </c>
       <c r="E8">
-        <v>0.06017909516242703</v>
+        <v>0.058514171335176</v>
       </c>
       <c r="F8">
-        <v>0.4665001825430224</v>
+        <v>0.436629710267475</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>3.335714574670412E-05</v>
+        <v>3.754862056837283E-07</v>
       </c>
       <c r="I8">
-        <v>0.0007323558520688778</v>
+        <v>0.0008626486829896862</v>
       </c>
       <c r="J8">
-        <v>0.0267246236506935</v>
+        <v>0.07609806137284014</v>
       </c>
       <c r="K8">
-        <v>0.2673400717183547</v>
+        <v>0.2414549482422608</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1352647685628785</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.05594541710770606</v>
       </c>
       <c r="N8">
-        <v>0.3471228392252641</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.3546382101194894</v>
       </c>
       <c r="Q8">
-        <v>1.350877239509259</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1.247100032103845</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.353974098560116</v>
+        <v>4.359061074544002</v>
       </c>
       <c r="C9">
-        <v>0.7726077860036469</v>
+        <v>0.8235075954181355</v>
       </c>
       <c r="D9">
-        <v>0.0738677305171791</v>
+        <v>0.07839160886846486</v>
       </c>
       <c r="E9">
-        <v>0.06693755518369038</v>
+        <v>0.06423101229289152</v>
       </c>
       <c r="F9">
-        <v>0.5476358953255982</v>
+        <v>0.504841538516807</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0007193369132384442</v>
+        <v>0.0008961579706527889</v>
       </c>
       <c r="I9">
-        <v>0.001508281465318007</v>
+        <v>0.001943344224391019</v>
       </c>
       <c r="J9">
-        <v>0.0267246236506935</v>
+        <v>0.07618838127587857</v>
       </c>
       <c r="K9">
-        <v>0.2545094588255523</v>
+        <v>0.2235132824387378</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1218729038231086</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.05616689495968785</v>
       </c>
       <c r="N9">
-        <v>0.455738646224745</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.4651792939137351</v>
       </c>
       <c r="Q9">
-        <v>1.50567803851655</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1.362367201753784</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.156524444729428</v>
+        <v>5.159777244089355</v>
       </c>
       <c r="C10">
-        <v>0.9018768724700124</v>
+        <v>0.972138807006246</v>
       </c>
       <c r="D10">
-        <v>0.08637971925806198</v>
+        <v>0.09261018567644186</v>
       </c>
       <c r="E10">
-        <v>0.06936030754740585</v>
+        <v>0.06618292372692025</v>
       </c>
       <c r="F10">
-        <v>0.6005109786752172</v>
+        <v>0.5491151730202262</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.002510055914039633</v>
+        <v>0.002676970591739103</v>
       </c>
       <c r="I10">
-        <v>0.003622222124023189</v>
+        <v>0.004077071346073602</v>
       </c>
       <c r="J10">
-        <v>0.0267246236506935</v>
+        <v>0.07897366448939458</v>
       </c>
       <c r="K10">
-        <v>0.2412476238252452</v>
+        <v>0.207559119854178</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1112720066428228</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.05747561859993056</v>
       </c>
       <c r="N10">
-        <v>0.5160141088122145</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.5264764335249339</v>
       </c>
       <c r="Q10">
-        <v>1.596711262869519</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1.427785429641887</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.517436399575558</v>
+        <v>5.520019949889104</v>
       </c>
       <c r="C11">
-        <v>1.057264600569567</v>
+        <v>1.125458965654616</v>
       </c>
       <c r="D11">
-        <v>0.1041309822353043</v>
+        <v>0.1102770397960029</v>
       </c>
       <c r="E11">
-        <v>0.0575602050111228</v>
+        <v>0.0564935072320073</v>
       </c>
       <c r="F11">
-        <v>0.5409143894001787</v>
+        <v>0.4987633448917848</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.02111079748982192</v>
+        <v>0.02123808104448344</v>
       </c>
       <c r="I11">
-        <v>0.004901108189766745</v>
+        <v>0.005420309784231137</v>
       </c>
       <c r="J11">
-        <v>0.0267246236506935</v>
+        <v>0.09407249181950306</v>
       </c>
       <c r="K11">
-        <v>0.1916447947783944</v>
+        <v>0.1678878495168838</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.09593003110528819</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.04449826930400569</v>
       </c>
       <c r="N11">
-        <v>0.3819774984061723</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.3896570956294028</v>
       </c>
       <c r="Q11">
-        <v>1.370596141098559</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>1.235747777249742</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.652681138263631</v>
+        <v>5.655115432009154</v>
       </c>
       <c r="C12">
-        <v>1.164059545298528</v>
+        <v>1.224505250782272</v>
       </c>
       <c r="D12">
-        <v>0.1171446311973625</v>
+        <v>0.1226615013701746</v>
       </c>
       <c r="E12">
-        <v>0.05778146955634433</v>
+        <v>0.0580807571080193</v>
       </c>
       <c r="F12">
-        <v>0.4844052663321889</v>
+        <v>0.4510468253774107</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.05960950362869966</v>
+        <v>0.05972383634693301</v>
       </c>
       <c r="I12">
-        <v>0.005091618392204289</v>
+        <v>0.005599198457052701</v>
       </c>
       <c r="J12">
-        <v>0.0267246236506935</v>
+        <v>0.1054405423656988</v>
       </c>
       <c r="K12">
-        <v>0.1601944360667016</v>
+        <v>0.1437366410288625</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.08775854263530292</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.03507268135008701</v>
       </c>
       <c r="N12">
-        <v>0.2740079918832095</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.2794956574614531</v>
       </c>
       <c r="Q12">
-        <v>1.181564579031829</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>1.077112606308333</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.620565744839951</v>
+        <v>5.62328467957127</v>
       </c>
       <c r="C13">
-        <v>1.242694802820154</v>
+        <v>1.290561563972062</v>
       </c>
       <c r="D13">
-        <v>0.1274909500786947</v>
+        <v>0.1319157221598886</v>
       </c>
       <c r="E13">
-        <v>0.06678474432542991</v>
+        <v>0.06789751360591367</v>
       </c>
       <c r="F13">
-        <v>0.423764150902457</v>
+        <v>0.3995122753679539</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.1149848883197535</v>
+        <v>0.1151037663278203</v>
       </c>
       <c r="I13">
-        <v>0.004736672427162247</v>
+        <v>0.005255205331093471</v>
       </c>
       <c r="J13">
-        <v>0.02672462365057982</v>
+        <v>0.1026584643119293</v>
       </c>
       <c r="K13">
-        <v>0.1385866651709851</v>
+        <v>0.1279848781451527</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.08312865621231058</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.02755361139947077</v>
       </c>
       <c r="N13">
-        <v>0.1809009149587837</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.1845422714868548</v>
       </c>
       <c r="Q13">
-        <v>0.9994390535223658</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.9248439503004562</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.522235954711903</v>
+        <v>5.52532875047973</v>
       </c>
       <c r="C14">
-        <v>1.286244637146638</v>
+        <v>1.322914763005542</v>
       </c>
       <c r="D14">
-        <v>0.1336611540915698</v>
+        <v>0.1370874509669022</v>
       </c>
       <c r="E14">
-        <v>0.07831588390257593</v>
+        <v>0.07964394735991043</v>
       </c>
       <c r="F14">
-        <v>0.3795973741800651</v>
+        <v>0.3616996959140053</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.1640066687760395</v>
+        <v>0.16413360368837</v>
       </c>
       <c r="I14">
-        <v>0.004339557555972817</v>
+        <v>0.004886962650365589</v>
       </c>
       <c r="J14">
-        <v>0.02672462365057982</v>
+        <v>0.09486545036309479</v>
       </c>
       <c r="K14">
-        <v>0.1285147127364095</v>
+        <v>0.1210986906761953</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.08133932417635137</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.02356785433283992</v>
       </c>
       <c r="N14">
-        <v>0.1255586462666187</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.1281361373286316</v>
       </c>
       <c r="Q14">
-        <v>0.8761318851119313</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.8215052905482878</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.462533121620481</v>
+        <v>5.465806696210336</v>
       </c>
       <c r="C15">
-        <v>1.291091480692785</v>
+        <v>1.324216206481708</v>
       </c>
       <c r="D15">
-        <v>0.1345597345858351</v>
+        <v>0.1376658630556022</v>
       </c>
       <c r="E15">
-        <v>0.08163265202915859</v>
+        <v>0.08294762627561525</v>
       </c>
       <c r="F15">
-        <v>0.3671810515384095</v>
+        <v>0.3509807901888991</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1763680758792248</v>
+        <v>0.17649834436628</v>
       </c>
       <c r="I15">
-        <v>0.004238678385936723</v>
+        <v>0.004818264560034535</v>
       </c>
       <c r="J15">
-        <v>0.02672462365057982</v>
+        <v>0.09097538657407966</v>
       </c>
       <c r="K15">
-        <v>0.1272331114033225</v>
+        <v>0.1204583304618954</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.08124207403240225</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.02285917191933962</v>
       </c>
       <c r="N15">
-        <v>0.1130539661083887</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.1154045714783081</v>
       </c>
       <c r="Q15">
-        <v>0.8445490886305009</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.7950559840208911</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.122331040164681</v>
+        <v>5.126456800525034</v>
       </c>
       <c r="C16">
-        <v>1.217916485650221</v>
+        <v>1.245063449606619</v>
       </c>
       <c r="D16">
-        <v>0.1268146031124218</v>
+        <v>0.1293780626002672</v>
       </c>
       <c r="E16">
-        <v>0.07836478741601915</v>
+        <v>0.07947431314705788</v>
       </c>
       <c r="F16">
-        <v>0.3558451045737385</v>
+        <v>0.3411546865435966</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1628866631753283</v>
+        <v>0.1630210463852819</v>
       </c>
       <c r="I16">
-        <v>0.003388236716843629</v>
+        <v>0.004014169650079502</v>
       </c>
       <c r="J16">
-        <v>0.02672462365057982</v>
+        <v>0.07852597926787475</v>
       </c>
       <c r="K16">
-        <v>0.1360683389983892</v>
+        <v>0.1287809714374477</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.08407896634254119</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.02469451595500693</v>
       </c>
       <c r="N16">
-        <v>0.1091497290714116</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.1115540181218364</v>
       </c>
       <c r="Q16">
-        <v>0.8390354361322352</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.7931019451602737</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.914338782565892</v>
+        <v>4.918887573643758</v>
       </c>
       <c r="C17">
-        <v>1.138853353191251</v>
+        <v>1.167587203266919</v>
       </c>
       <c r="D17">
-        <v>0.1176030918862949</v>
+        <v>0.1203058612566394</v>
       </c>
       <c r="E17">
-        <v>0.06887664306713326</v>
+        <v>0.06981518901902639</v>
       </c>
       <c r="F17">
-        <v>0.3703809343296243</v>
+        <v>0.3536227531842826</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.124733578674622</v>
+        <v>0.1248617389125002</v>
       </c>
       <c r="I17">
-        <v>0.003008349178318603</v>
+        <v>0.003649922998230082</v>
       </c>
       <c r="J17">
-        <v>0.02672462365057982</v>
+        <v>0.07630534183234516</v>
       </c>
       <c r="K17">
-        <v>0.1477930964713341</v>
+        <v>0.1386773869547469</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.08759431898747083</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.02782818762773598</v>
       </c>
       <c r="N17">
-        <v>0.1333929146937933</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.1363415120234137</v>
       </c>
       <c r="Q17">
-        <v>0.8991889768111179</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0.8460283659834857</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.795882369167259</v>
+        <v>4.800582946209602</v>
       </c>
       <c r="C18">
-        <v>1.045810999613536</v>
+        <v>1.082031097167942</v>
       </c>
       <c r="D18">
-        <v>0.106256968687191</v>
+        <v>0.1096179423806944</v>
       </c>
       <c r="E18">
-        <v>0.05790106521653549</v>
+        <v>0.05843607922681571</v>
       </c>
       <c r="F18">
-        <v>0.4112633726201764</v>
+        <v>0.3887380706323924</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.0718386809730589</v>
+        <v>0.07196807316927334</v>
       </c>
       <c r="I18">
-        <v>0.002648545655335788</v>
+        <v>0.003245633708490736</v>
       </c>
       <c r="J18">
-        <v>0.02672462365057982</v>
+        <v>0.07595859146309314</v>
       </c>
       <c r="K18">
-        <v>0.1666546471221952</v>
+        <v>0.153631861705998</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.09321528506055721</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.03312173120508</v>
       </c>
       <c r="N18">
-        <v>0.1938701766637649</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.1980388053342637</v>
       </c>
       <c r="Q18">
-        <v>1.032659661912646</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0.9604317623457774</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.757610710289896</v>
+        <v>4.762221481344511</v>
       </c>
       <c r="C19">
-        <v>0.9586555137152857</v>
+        <v>1.005279869892604</v>
       </c>
       <c r="D19">
-        <v>0.09519328856803355</v>
+        <v>0.09944178944428472</v>
       </c>
       <c r="E19">
-        <v>0.05399458221172948</v>
+        <v>0.0535740078313911</v>
       </c>
       <c r="F19">
-        <v>0.4694820506651212</v>
+        <v>0.4382485574166637</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02684460300503844</v>
+        <v>0.02699097003114304</v>
       </c>
       <c r="I19">
-        <v>0.002832224450364684</v>
+        <v>0.003453832375209132</v>
       </c>
       <c r="J19">
-        <v>0.02672462365057982</v>
+        <v>0.0759263476844998</v>
       </c>
       <c r="K19">
-        <v>0.1930294048768975</v>
+        <v>0.1737929461386685</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1008604638744668</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.04064740792528632</v>
       </c>
       <c r="N19">
-        <v>0.2940548999975618</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.3001855091496992</v>
       </c>
       <c r="Q19">
-        <v>1.216481525607833</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>1.115123315812554</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.945482826811372</v>
+        <v>4.949289825154324</v>
       </c>
       <c r="C20">
-        <v>0.8769581678395184</v>
+        <v>0.9421636083817191</v>
       </c>
       <c r="D20">
-        <v>0.08390847717872418</v>
+        <v>0.08968897104972484</v>
       </c>
       <c r="E20">
-        <v>0.06821338005659427</v>
+        <v>0.06521906579512127</v>
       </c>
       <c r="F20">
-        <v>0.5798536323709342</v>
+        <v>0.5313497498934581</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.001920324272860707</v>
+        <v>0.002100735931196862</v>
       </c>
       <c r="I20">
-        <v>0.003674149680811922</v>
+        <v>0.004296926144420787</v>
       </c>
       <c r="J20">
-        <v>0.02672462365057982</v>
+        <v>0.07642603823835525</v>
       </c>
       <c r="K20">
-        <v>0.2405670319456625</v>
+        <v>0.208299751402425</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1127606088819668</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.05564998234973295</v>
       </c>
       <c r="N20">
-        <v>0.5003426871560066</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.5104838345322662</v>
       </c>
       <c r="Q20">
-        <v>1.550843362893147</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1.390974976593895</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.562452026465962</v>
+        <v>5.564431012311843</v>
       </c>
       <c r="C21">
-        <v>0.9597122437051837</v>
+        <v>1.041851306026587</v>
       </c>
       <c r="D21">
-        <v>0.09146791268612731</v>
+        <v>0.09871985453387566</v>
       </c>
       <c r="E21">
-        <v>0.07380153600986361</v>
+        <v>0.06997054684447157</v>
       </c>
       <c r="F21">
-        <v>0.6380282765728964</v>
+        <v>0.580185211693987</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.003655804508189919</v>
+        <v>0.003772937721597258</v>
       </c>
       <c r="I21">
-        <v>0.005737690000326978</v>
+        <v>0.006257798831385664</v>
       </c>
       <c r="J21">
-        <v>0.02672462365057982</v>
+        <v>0.1039450029752018</v>
       </c>
       <c r="K21">
-        <v>0.2404028187456326</v>
+        <v>0.2037278823933626</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1075280431994834</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.060364623424217</v>
       </c>
       <c r="N21">
-        <v>0.5779095690182174</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.5894567610618964</v>
       </c>
       <c r="Q21">
-        <v>1.677459701553914</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1.488415694210516</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.965988221284306</v>
+        <v>5.966555418283633</v>
       </c>
       <c r="C22">
-        <v>1.015611816818677</v>
+        <v>1.108332415733855</v>
       </c>
       <c r="D22">
-        <v>0.09674756204515234</v>
+        <v>0.1049272251223243</v>
       </c>
       <c r="E22">
-        <v>0.07642047037076871</v>
+        <v>0.07216578793952522</v>
       </c>
       <c r="F22">
-        <v>0.6746301650934754</v>
+        <v>0.6110731108720771</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.005102024831678653</v>
+        <v>0.005138416662885226</v>
       </c>
       <c r="I22">
-        <v>0.007126579413760936</v>
+        <v>0.007459311034961225</v>
       </c>
       <c r="J22">
-        <v>0.02672462365057982</v>
+        <v>0.1466045079829286</v>
       </c>
       <c r="K22">
-        <v>0.2396117918660643</v>
+        <v>0.200364198346751</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1039248977013436</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.06379864769480648</v>
       </c>
       <c r="N22">
-        <v>0.6180434549320921</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.6303163301076466</v>
       </c>
       <c r="Q22">
-        <v>1.755403731097545</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>1.548651615372819</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.750668436379669</v>
+        <v>5.752010322422166</v>
       </c>
       <c r="C23">
-        <v>0.9824164519711474</v>
+        <v>1.069403406516187</v>
       </c>
       <c r="D23">
-        <v>0.0936342154858778</v>
+        <v>0.1013131213037042</v>
       </c>
       <c r="E23">
-        <v>0.07518382670318324</v>
+        <v>0.07113517581520945</v>
       </c>
       <c r="F23">
-        <v>0.6573149652525814</v>
+        <v>0.5966147038193839</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.004309408449763297</v>
+        <v>0.004392417015545991</v>
       </c>
       <c r="I23">
-        <v>0.006081373568343373</v>
+        <v>0.006457689704856939</v>
       </c>
       <c r="J23">
-        <v>0.02672462365057982</v>
+        <v>0.1149997787805219</v>
       </c>
       <c r="K23">
-        <v>0.2414174702954561</v>
+        <v>0.2032931096329804</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1062161859704283</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.06241335077669063</v>
       </c>
       <c r="N23">
-        <v>0.5962080707564184</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.6081087641459959</v>
       </c>
       <c r="Q23">
-        <v>1.721049337974279</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1.523009465712562</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.935954773371463</v>
+        <v>4.939752647578985</v>
       </c>
       <c r="C24">
-        <v>0.8627175742533097</v>
+        <v>0.9284755325997196</v>
       </c>
       <c r="D24">
-        <v>0.08235346854380055</v>
+        <v>0.08817491147578238</v>
       </c>
       <c r="E24">
-        <v>0.07023759441545252</v>
+        <v>0.06699368970901531</v>
       </c>
       <c r="F24">
-        <v>0.590052934787785</v>
+        <v>0.5401754086600903</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.001870434026544854</v>
+        <v>0.00205355479191871</v>
       </c>
       <c r="I24">
-        <v>0.003226987723230046</v>
+        <v>0.003751293480629414</v>
       </c>
       <c r="J24">
-        <v>0.02672462365057982</v>
+        <v>0.076368825553498</v>
       </c>
       <c r="K24">
-        <v>0.247051442262709</v>
+        <v>0.2134148342492281</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1146731563191459</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.0575762835071405</v>
       </c>
       <c r="N24">
-        <v>0.5144927265621391</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.5249486698688202</v>
       </c>
       <c r="Q24">
-        <v>1.584953825414317</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1.420137120106915</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.058207947816015</v>
+        <v>4.063797076031392</v>
       </c>
       <c r="C25">
-        <v>0.7344530748979139</v>
+        <v>0.7780608202189683</v>
       </c>
       <c r="D25">
-        <v>0.07022145740532437</v>
+        <v>0.0741048072393653</v>
       </c>
       <c r="E25">
-        <v>0.06488083003093692</v>
+        <v>0.06248593656797041</v>
       </c>
       <c r="F25">
-        <v>0.5215114464227995</v>
+        <v>0.4826279216726661</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.0003292717369129949</v>
+        <v>0.000475488237504984</v>
       </c>
       <c r="I25">
-        <v>0.001453252363553759</v>
+        <v>0.001924829241387371</v>
       </c>
       <c r="J25">
-        <v>0.02672462365057982</v>
+        <v>0.07595196022662787</v>
       </c>
       <c r="K25">
-        <v>0.2553682618371305</v>
+        <v>0.226172113713524</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1245739376232731</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.05493236798206702</v>
       </c>
       <c r="N25">
-        <v>0.426877172400097</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.4357701263655542</v>
       </c>
       <c r="Q25">
-        <v>1.45030901572386</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>1.319171608473908</v>
       </c>
     </row>
   </sheetData>
